--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_mistral_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_mistral_dbpedia_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-wikidata-dbpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F9C62E-BFC7-48A9-AB21-D19422F104D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB76FEE5-221B-492F-BF1E-54E5DBC9AC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="429">
   <si>
     <t>Question</t>
   </si>
@@ -1326,9 +1326,6 @@
   </si>
   <si>
     <t>Structural Error</t>
-  </si>
-  <si>
-    <t>intent Error</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2583,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">

--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_mistral_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_mistral_dbpedia_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-wikidata-dbpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB76FEE5-221B-492F-BF1E-54E5DBC9AC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F65BB-4BA6-4BB1-8535-E4EBF0ACEED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$101</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="427">
   <si>
     <t>Question</t>
   </si>
@@ -349,304 +349,968 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>SELECT ?founder WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?founder . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director dbr:Stanley_Kubrick . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?musical WHERE { ?musical rdf:type dbo:Musical . ?musical dbo:musicBy dbr:Elton_John . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?developer WHERE { dbr:Skype dbo:developer ?developer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:SoccerClub ; dbo:league dbr:Bundesliga . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbo:director dbr:William_Shatner ; dbo:starring ?actor . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Mountain ; dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a dbo:Film ; dbo:starring res:Leonardo_DiCaprio . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?movie WHERE { ?movie &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?movie &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:Minecraft dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?budget WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?budget . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?label WHERE { dbr:Elvis_Presley dbo:artist ?album . ?album dbo:releaseDate ?date . ?album dbo:recordLabel ?label . } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?runtime WHERE { dbr:Toy_Story dbo:runtime ?runtime . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Bandleader ; dbo:instrument dbr:Trumpet . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring dbr:Julia_Roberts . ?uri dbo:director dbr:Garry_Marshall . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?year WHERE { dbr:Rachel_Stevens dbo:birthYear ?year . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?s dbo:deathCause ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?height WHERE { dbr:Yokohama_Marine_Tower dbo:height ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain a dbo:Mountain ; dbo:locatedInArea dbr:Italy ; dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:owner dbr:Donald_Trump . ?uri a dbo:Company . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?spouse WHERE { dbr:Tom_Cruise dbo:spouse ?spouse . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbr:Eurasia dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbr:The_Interpretation_of_Dreams dbo:author ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?birthDate WHERE { dbr:John_Adams dbo:birthDate ?birthDate . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?population WHERE { dbr:European_Union dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?currency . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?deathDate WHERE { dbr:William_Shakespeare dbo:deathDate ?deathDate . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?rocket WHERE { ?rocket a dbpedia-owl:Rocket . ?rocket dbpedia-owl:launchSite dbr:Baikonur_Cosmodrome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Island ; dbo:country dbr:Japan . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:World_of_Warcraft dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Company ; dbo:industry dbr:Advertising . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?university WHERE { res:Angela_Merkel dbo:almaMater ?university . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri a dbo:TelevisionShow . ?uri dbo:starring dbr:Neil_Patrick_Harris . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:starring dbr:Tom_Cruise. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbr:Mount_Everest dbo:locatedInArea ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbp:John_F._Kennedy dbo:deathPlace ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?river . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Swimmer ; dbo:birthPlace dbr:Moscow . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?s1 WHERE { ?s1 a &lt;http://dbpedia.org/ontology/Film&gt; . ?s1 &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 &lt;http://dbpedia.org/ontology/releaseDate&gt; ?o1 . } ORDER BY DESC(?o1) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res ?elevation WHERE { ?res a dbo:Mountain . ?res dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbr:Cairo dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri a dbo:Person . ?uri dbo:birthPlace dbr:Heraklion . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) as ?c) WHERE { ?child dbo:child dbr:Benjamin_Franklin . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?elevation WHERE { dbr:Düsseldorf_Airport dbo:elevation ?elevation . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Mecca dbo:country ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?height WHERE { dbr:Claudia_Schiffer dbo:height ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?author WHERE { dbr:The_Pillars_of_the_Earth dbo:author ?author . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?genre WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; &lt;http://dbpedia.org/ontology/genre&gt; ?genre . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbr:Frank_Sinatra dbo:birthPlace ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:City ; dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow ; dbo:creator dbr:Walt_Disney . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?holiday WHERE { ?holiday a dbo:Holiday ; dbo:country dbr:Sweden . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbr:Abraham_Lincoln dbo:deathPlace ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?capital WHERE { dbr:Himalayas dbo:country ?country . ?country dbo:capital ?capital . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://dbpedia.org/ontology/country&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?height WHERE { dbr:Michael_Jordan dbo:height ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?film WHERE { ?film dbo:director dbr:Clint_Eastwood ; dbo:starring dbr:Clint_Eastwood . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { ?country dbo:currency dbr:West_African_CFA_franc . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?population WHERE { dbp:Iraq dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:PoliticalParty ; dbo:country dbr:Greece ; dbo:ideology dbr:Pro-Europeanism . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?movement WHERE { dbr:The_Three_Dancers dbo:author ?painter . ?painter dbo:movement ?movement . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace dbr:Germany . } UNION { ?uri dbo:birthPlace ?place . ?place dbo:country dbr:Germany . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?architect WHERE { dbr:Brooklyn_Bridge dbo:architect ?architect . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Film ; dbo:director dbr:Francis_Ford_Coppola . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { dbr:Adele dbo:birthName ?name. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Album&gt; . ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?currency WHERE { &lt;http://dbpedia.org/resource/Czech_Republic&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?currency . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:birthPlace dbr:Vienna . ?uri dbo:deathPlace dbr:Berlin . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Bridge ; dbo:crosses dbr:Seine . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Musician . ?book dbo:author ?uri ; a dbo:Book . } GROUP BY ?uri ORDER BY DESC(COUNT(?book)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?writer WHERE { ?writer a dbo:Writer . ?writer dbo:award dbr:Nobel_Prize_in_Literature . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res dbpedia-owl:occupation dbpedia:Bandleader . ?res dbpedia-owl:instrument dbpedia:Trumpet . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:BasketballPlayer . ?uri dbo:height ?height . FILTER(?height &gt; 200) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?capital WHERE { &lt;http://dbpedia.org/resource/Canada&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?capital . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:SoccerPlayer ; dbpedia-owl:birthPlace dbpedia:Malta . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?capital WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?capital }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub rdf:type dbo:ProgrammingLanguage . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?population WHERE { dbr:Mexico_City dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbp:Batman dbo:creator ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Australia&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?capital . ?capital &lt;http://dbpedia.org/ontology/populationTotal&gt; ?number . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbr:North_Rhine-Westphalia dbo:areaTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?employees WHERE { dbr:IBM dbo:numberOfEmployees ?employees . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE { dbr:Pulp_Fiction dbo:budget ?value . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?movie WHERE { ?movie dbo:starring dbr:Jesse_Eisenberg . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Film ; dbo:country dbr:Denmark . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:Himalayas dbo:country ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?almaMater WHERE { res:Angela_Merkel dbo:almaMater ?almaMater . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri . }</t>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?founder WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?founder . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director dbr:Stanley_Kubrick . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?musical WHERE { ?musical rdf:type dbo:Musical . ?musical dbo:musicBy dbr:Elton_John . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?developer WHERE { dbr:Skype dbo:developer ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:SoccerClub ; dbo:league dbr:Bundesliga . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?actor WHERE { ?movie dbo:director dbr:William_Shatner ; dbo:starring ?actor . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Mountain ; dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a dbo:Film ; dbo:starring res:Leonardo_DiCaprio . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?movie WHERE { ?movie &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?movie &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:Minecraft dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?budget WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?budget . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?label WHERE { dbr:Elvis_Presley dbo:artist ?album . ?album dbo:releaseDate ?date . ?album dbo:recordLabel ?label . } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?runtime WHERE { dbr:Toy_Story dbo:runtime ?runtime . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Bandleader ; dbo:instrument dbr:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring dbr:Julia_Roberts . ?uri dbo:director dbr:Garry_Marshall . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?year WHERE { dbr:Rachel_Stevens dbo:birthYear ?year . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?s dbo:deathCause ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?height WHERE { dbr:Yokohama_Marine_Tower dbo:height ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain a dbo:Mountain ; dbo:locatedInArea dbr:Italy ; dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:owner dbr:Donald_Trump . ?uri a dbo:Company . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?spouse WHERE { dbr:Tom_Cruise dbo:spouse ?spouse . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbr:Eurasia dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbr:The_Interpretation_of_Dreams dbo:author ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?birthDate WHERE { dbr:John_Adams dbo:birthDate ?birthDate . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?population WHERE { dbr:European_Union dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?currency . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?deathDate WHERE { dbr:William_Shakespeare dbo:deathDate ?deathDate . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?rocket WHERE { ?rocket a dbpedia-owl:Rocket . ?rocket dbpedia-owl:launchSite dbr:Baikonur_Cosmodrome . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Island ; dbo:country dbr:Japan . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:World_of_Warcraft dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Company ; dbo:industry dbr:Advertising . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?university WHERE { res:Angela_Merkel dbo:almaMater ?university . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri a dbo:TelevisionShow . ?uri dbo:starring dbr:Neil_Patrick_Harris . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:starring dbr:Tom_Cruise. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbr:Mount_Everest dbo:locatedInArea ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbp:John_F._Kennedy dbo:deathPlace ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?river . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Swimmer ; dbo:birthPlace dbr:Moscow . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?s1 WHERE { ?s1 a &lt;http://dbpedia.org/ontology/Film&gt; . ?s1 &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 &lt;http://dbpedia.org/ontology/releaseDate&gt; ?o1 . } ORDER BY DESC(?o1) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res ?elevation WHERE { ?res a dbo:Mountain . ?res dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbr:Cairo dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri a dbo:Person . ?uri dbo:birthPlace dbr:Heraklion . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?child) as ?c) WHERE { ?child dbo:child dbr:Benjamin_Franklin . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?elevation WHERE { dbr:Düsseldorf_Airport dbo:elevation ?elevation . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Mecca dbo:country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?height WHERE { dbr:Claudia_Schiffer dbo:height ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?author WHERE { dbr:The_Pillars_of_the_Earth dbo:author ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?genre WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; &lt;http://dbpedia.org/ontology/genre&gt; ?genre . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbr:Frank_Sinatra dbo:birthPlace ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:City ; dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow ; dbo:creator dbr:Walt_Disney . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?holiday WHERE { ?holiday a dbo:Holiday ; dbo:country dbr:Sweden . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbr:Abraham_Lincoln dbo:deathPlace ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?capital WHERE { dbr:Himalayas dbo:country ?country . ?country dbo:capital ?capital . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://dbpedia.org/ontology/country&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?height WHERE { dbr:Michael_Jordan dbo:height ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?film WHERE { ?film dbo:director dbr:Clint_Eastwood ; dbo:starring dbr:Clint_Eastwood . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { ?country dbo:currency dbr:West_African_CFA_franc . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?population WHERE { dbp:Iraq dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:PoliticalParty ; dbo:country dbr:Greece ; dbo:ideology dbr:Pro-Europeanism . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?movement WHERE { dbr:The_Three_Dancers dbo:author ?painter . ?painter dbo:movement ?movement . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace dbr:Germany . } UNION { ?uri dbo:birthPlace ?place . ?place dbo:country dbr:Germany . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?architect WHERE { dbr:Brooklyn_Bridge dbo:architect ?architect . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Film ; dbo:director dbr:Francis_Ford_Coppola . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { dbr:Adele dbo:birthName ?name. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Album&gt; . ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?currency WHERE { &lt;http://dbpedia.org/resource/Czech_Republic&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?currency . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:birthPlace dbr:Vienna . ?uri dbo:deathPlace dbr:Berlin . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Bridge ; dbo:crosses dbr:Seine . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Musician . ?book dbo:author ?uri ; a dbo:Book . } GROUP BY ?uri ORDER BY DESC(COUNT(?book)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?writer WHERE { ?writer a dbo:Writer . ?writer dbo:award dbr:Nobel_Prize_in_Literature . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res dbpedia-owl:occupation dbpedia:Bandleader . ?res dbpedia-owl:instrument dbpedia:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:BasketballPlayer . ?uri dbo:height ?height . FILTER(?height &gt; 200) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?capital WHERE { &lt;http://dbpedia.org/resource/Canada&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?capital . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:SoccerPlayer ; dbpedia-owl:birthPlace dbpedia:Malta . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?capital WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?capital }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub rdf:type dbo:ProgrammingLanguage . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?population WHERE { dbr:Mexico_City dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbp:Batman dbo:creator ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Australia&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?capital . ?capital &lt;http://dbpedia.org/ontology/populationTotal&gt; ?number . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbr:North_Rhine-Westphalia dbo:areaTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?employees WHERE { dbr:IBM dbo:numberOfEmployees ?employees . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE { dbr:Pulp_Fiction dbo:budget ?value . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?movie WHERE { ?movie dbo:starring dbr:Jesse_Eisenberg . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Film ; dbo:country dbr:Denmark . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:Himalayas dbo:country ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?almaMater WHERE { res:Angela_Merkel dbo:almaMater ?almaMater . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri . }</t>
   </si>
   <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
@@ -955,153 +1619,162 @@
     <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Aida_(musical)', 'http://dbpedia.org/resource/Billy_Elliot_the_Musical', 'http://dbpedia.org/resource/Lestat_(musical)', 'http://dbpedia.org/resource/Tammy_Faye_(musical)', 'http://dbpedia.org/resource/The_Devil_Wears_Prada_(musical)', 'http://dbpedia.org/resource/The_Lion_King_(musical)']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Alpide_belt']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['1986-02-28']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+  </si>
+  <si>
+    <t>['60.0']</t>
+  </si>
+  <si>
+    <t>['No answer']</t>
+  </si>
+  <si>
+    <t>['4860']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+  </si>
+  <si>
+    <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
+  </si>
+  <si>
+    <t>['1978']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
+  </si>
+  <si>
+    <t>['106.07']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
+  </si>
+  <si>
+    <t>['5360351985']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+  </si>
+  <si>
+    <t>['1735-10-30']</t>
+  </si>
+  <si>
+    <t>['446828803']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Renminbi']</t>
+  </si>
+  <si>
+    <t>['1616-04-23']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/140_Proof', 'http://dbpedia.org/resource/495_Communications', 'http://dbpedia.org/resource/72andSunny', 'http://dbpedia.org/resource/Abbott_Mead_Vickers_BBDO', 'http://dbpedia.org/resource/AdDuplex', 'http://dbpedia.org/resource/AdForum', 'http://dbpedia.org/resource/AdGreetz', 'http://dbpedia.org/resource/AdKeeper', 'http://dbpedia.org/resource/AdPack_USA', 'http://dbpedia.org/resource/All_By_Students_Notebooks', 'http://dbpedia.org/resource/Amalgamated_Advertising', 'http://dbpedia.org/resource/Anomaly_(advertising_agency)', 'http://dbpedia.org/resource/Argentonia', 'http://dbpedia.org/resource/AudienceProject', 'http://dbpedia.org/resource/B-Reel', 'http://dbpedia.org/resource/Bang_(company)', 'http://dbpedia.org/resource/Barker_(advertising_agency)', 'http://dbpedia.org/resource/Barkley_Inc.', 'http://dbpedia.org/resource/Bastion_Collective', 'http://dbpedia.org/resource/BBB_National_Programs', 'http://dbpedia.org/resource/Beasley_Broadcast_Group', 'http://dbpedia.org/resource/Berk_Communications', 'http://dbpedia.org/resource/Blue_Zoo_Animation_Studio', 'http://dbpedia.org/resource/BlueFocus_Communication_Group', 'http://dbpedia.org/resource/Boase_Massimi_Pollitt', 'http://dbpedia.org/resource/Boats_Group', 'http://dbpedia.org/resource/Bookmark_Content_and_Communications', 'http://dbpedia.org/resource/Brand_Keys', 'http://dbpedia.org/resource/Bromley_Originate_Change', 'http://dbpedia.org/resource/Butler,_Shine,_Stern_&amp;_Partners', 'http://dbpedia.org/resource/BYU_Adlab', 'http://dbpedia.org/resource/Cabe_Rawit_Marketing_Communications', 'http://dbpedia.org/resource/Camp+King', 'http://dbpedia.org/resource/Campaigns_&amp;_Grey', 'http://dbpedia.org/resource/Carbone_Smolan_Agency', "http://dbpedia.org/resource/Children's_Advertising_Review_Unit", 'http://dbpedia.org/resource/CKS_Group', 'http://dbpedia.org/resource/Classified_Ventures', 'http://dbpedia.org/resource/Clever_Bins', 'http://dbpedia.org/resource/Collett_Dickenson_Pearce', 'http://dbpedia.org/resource/Commonground/MGS', 'http://dbpedia.org/resource/Compass_Media_Networks', 'http://dbpedia.org/resource/Cordiant_Communications_Group', 'http://dbpedia.org/resource/Creature_(company)', 'http://dbpedia.org/resource/Crispin_Porter_+_Bogusky', 'http://dbpedia.org/resource/Dancer_Fitzgerald_Sample', 'http://dbpedia.org/resource/Dancing_Diablo', 'http://dbpedia.org/resource/DCF_Advertising', 'http://dbpedia.org/resource/Doe-Anderson_Inc.', 'http://dbpedia.org/resource/Dominion_Enterprises', 'http://dbpedia.org/resource/Doner_Company', 'http://dbpedia.org/resource/Door_Number_3', 'http://dbpedia.org/resource/Droga5', 'http://dbpedia.org/resource/DRUM_Agency', 'http://dbpedia.org/resource/Due_North_Communications', 'http://dbpedia.org/resource/Earthsky_Pictures', 'http://dbpedia.org/resource/Emakina_Group', 'http://dbpedia.org/resource/Empower_(company)', 'http://dbpedia.org/resource/Eniro', 'http://dbpedia.org/resource/Equativ', 'http://dbpedia.org/resource/Essence_Global', 'http://dbpedia.org/resource/Euro_RSCG_London', 'http://dbpedia.org/resource/FCB_(advertising_agency)', 'http://dbpedia.org/resource/Flock_Edit', 'http://dbpedia.org/resource/Flurry_(company)', 'http://dbpedia.org/resource/Focus_Media', 'http://dbpedia.org/resource/Forum_Communications_Company', 'http://dbpedia.org/resource/Fred_&amp;_Farid_Group', 'http://dbpedia.org/resource/Gigil', 'http://dbpedia.org/resource/Goodby,_Silverstein_&amp;_Partners', 'http://dbpedia.org/resource/Google', 'http://dbpedia.org/resource/Gotham,_Inc.', 'http://dbpedia.org/resource/Grey_Global_Group', 'http://dbpedia.org/resource/Griffin-Bacal_Advertising', 'http://dbpedia.org/resource/GSD&amp;M', 'http://dbpedia.org/resource/GTB_(advertising_agency)', 'http://dbpedia.org/resource/GumCo', 'http://dbpedia.org/resource/GWI_(company)', 'http://dbpedia.org/resource/Hogarth_Worldwide', 'http://dbpedia.org/resource/I_Wear_Your_Shirt', 'http://dbpedia.org/resource/ID_(public_relations)', 'http://dbpedia.org/resource/Initiative_(agency)', 'http://dbpedia.org/resource/Invite_Media', 'http://dbpedia.org/resource/Jackson_Radio_Works', 'http://dbpedia.org/resource/Janimation', 'http://dbpedia.org/resource/Johannes_Leonardo', 'http://dbpedia.org/resource/Johnstone_and_Cushing', 'http://dbpedia.org/resource/Karmarama_(advertising_agency)', 'http://dbpedia.org/resource/Ketchum_Inc.', 'http://dbpedia.org/resource/La_comunidad_(agency)', 'http://dbpedia.org/resource/Lamar_Advertising_Company', 'http://dbpedia.org/resource/LatinWorks', 'http://dbpedia.org/resource/Laughlin_Constable', 'http://dbpedia.org/resource/Le_Book', 'http://dbpedia.org/resource/Level_Studios', 'http://dbpedia.org/resource/Logical_Position', 'http://dbpedia.org/resource/Lopez_Negrete_Communications', 'http://dbpedia.org/resource/Lowe_Roche', 'http://dbpedia.org/resource/LPM_Comunicação', 'http://dbpedia.org/resource/M&amp;C_Saatchi', 'http://dbpedia.org/resource/Magnite_Inc', 'http://dbpedia.org/resource/Makovsky_(agency)', 'http://dbpedia.org/resource/MARC_USA', 'http://dbpedia.org/resource/Marfeel', 'http://dbpedia.org/resource/Marmoset_(music_agency)', 'http://dbpedia.org/resource/Martin_Williams_Advertising', 'http://dbpedia.org/resource/Mason_&amp;_Associates', 'http://dbpedia.org/resource/Massive_Incorporated', 'http://dbpedia.org/resource/Matari_Advertising', 'http://dbpedia.org/resource/Matomy_Media', 'http://dbpedia.org/resource/Maximum_Effort', 'http://dbpedia.org/resource/Maxus_(media_agency)', 'http://dbpedia.org/resource/Mc_Group', 'http://dbpedia.org/resource/McCann_(company)', 'http://dbpedia.org/resource/McGarrah_Jessee', 'http://dbpedia.org/resource/McKinney_(advertising_agency)', 'http://dbpedia.org/resource/MDB_Communications', 'http://dbpedia.org/resource/Mediahub', 'http://dbpedia.org/resource/Mekanism', 'http://dbpedia.org/resource/Merchlar', 'http://dbpedia.org/resource/MGSCOMM', 'http://dbpedia.org/resource/Mindshare_(firm)', 'http://dbpedia.org/resource/Mithun_Agency', 'http://dbpedia.org/resource/MMA_Creative', 'http://dbpedia.org/resource/Modernista!', 'http://dbpedia.org/resource/Moxie_Sozo', 'http://dbpedia.org/resource/MullenLowe_U.S.', 'http://dbpedia.org/resource/N._W._Ayer_&amp;_Son', 'http://dbpedia.org/resource/Narcity_Media', 'http://dbpedia.org/resource/Nativex', 'http://dbpedia.org/resource/NBG_Radio_Network', 'http://dbpedia.org/resource/Noble_(company)', 'http://dbpedia.org/resource/Nova_M_Radio', 'http://dbpedia.org/resource/Ogilvy_(agency)', 'http://dbpedia.org/resource/OMD_Worldwide', 'http://dbpedia.org/resource/OOh!media', 'http://dbpedia.org/resource/OwnLocal', 'http://dbpedia.org/resource/PeakBiety_Branding_+_Advertising', 'http://dbpedia.org/resource/Porterhouse_Media', 'http://dbpedia.org/resource/Premiere_Networks', 'http://dbpedia.org/resource/Promotus_Advertising', 'http://dbpedia.org/resource/Proximity_Worldwide', 'http://dbpedia.org/resource/Purple_Strategies', 'http://dbpedia.org/resource/Quarry_(company)', 'http://dbpedia.org/resource/R/GA', 'http://dbpedia.org/resource/R%5CWest', 'http://dbpedia.org/resource/Radio_Express', 'http://dbpedia.org/resource/Razor_Creative', 'http://dbpedia.org/resource/Red_Zebra_Broadcasting', 'http://dbpedia.org/resource/Richards/Carlberg', 'http://dbpedia.org/resource/Rothco', 'http://dbpedia.org/resource/Scholz_&amp;_Friends', 'http://dbpedia.org/resource/Screenvision', 'http://dbpedia.org/resource/Seiter_&amp;_Miller_Advertising', 'http://dbpedia.org/resource/Sensis_(company)', 'http://dbpedia.org/resource/Serviceplan', 'http://dbpedia.org/resource/Siren_interactive', 'http://dbpedia.org/resource/Sirved', 'http://dbpedia.org/resource/Smith_(advertising_agency)', 'http://dbpedia.org/resource/Soccer_United_Marketing', 'http://dbpedia.org/resource/Stein_IAS', 'http://dbpedia.org/resource/Stevens_Reed_Curcio_&amp;_Potholm', 'http://dbpedia.org/resource/Stinkdigital', 'http://dbpedia.org/resource/Storeboard_Media', 'http://dbpedia.org/resource/Strata_(company)', 'http://dbpedia.org/resource/Stuart_Advertising_Agency', 'http://dbpedia.org/resource/Sullivan_&amp;_Company', 'http://dbpedia.org/resource/T3_(company)', 'http://dbpedia.org/resource/TBWA_Worldwide', 'http://dbpedia.org/resource/TBWA%5CChiat%5CDay', 'http://dbpedia.org/resource/Telmar_(company)', 'http://dbpedia.org/resource/The_Ant_Farm', 'http://dbpedia.org/resource/The_Barbarian_Group', 'http://dbpedia.org/resource/The_Kluger_Agency', 'http://dbpedia.org/resource/The_Marketing_Group', 'http://dbpedia.org/resource/The_North_Alliance', 'http://dbpedia.org/resource/The_San_Jose_Group', 'http://dbpedia.org/resource/TheSwizzle.com', 'http://dbpedia.org/resource/Titan_(transit_advertising_company)', 'http://dbpedia.org/resource/TM_Advertising', 'http://dbpedia.org/resource/Tocquigny', 'http://dbpedia.org/resource/Tombras_Group', 'http://dbpedia.org/resource/Topham_Guerin', 'http://dbpedia.org/resource/Toth_Brand_Imaging', 'http://dbpedia.org/resource/Traction_(agency)', 'http://dbpedia.org/resource/Tremor_International', 'http://dbpedia.org/resource/Tribal_Worldwide', 'http://dbpedia.org/resource/UNIT9', 'http://dbpedia.org/resource/United_Group', 'http://dbpedia.org/resource/UWG_Inc.', 'http://dbpedia.org/resource/Will_Vinton__Productions__1', 'http://dbpedia.org/resource/Work_Labs', 'http://dbpedia.org/resource/WPP-Scangroup', 'http://dbpedia.org/resource/Wunderman_Thompson', 'http://dbpedia.org/resource/Wunderman', 'http://dbpedia.org/resource/XM_Gravity_Indonesia', 'http://dbpedia.org/resource/YachtWorld', 'http://dbpedia.org/resource/ZERO_VFX']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal', 'http://dbpedia.org/resource/Province_No._1', 'http://dbpedia.org/resource/Solukhumbu_District', 'http://dbpedia.org/resource/Tibet_Autonomous_Region', 'http://dbpedia.org/resource/Tingri_County', 'http://dbpedia.org/resource/Xigazê']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Dallas']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/East_River']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Aleksandr_Pletnev', 'http://dbpedia.org/resource/Aleksandr_Samsonov', 'http://dbpedia.org/resource/Aleksey_Matveyev', 'http://dbpedia.org/resource/Alexandra_Patskevich', 'http://dbpedia.org/resource/Alexey_Zinovyev', 'http://dbpedia.org/resource/Alla_Shishkina', 'http://dbpedia.org/resource/Anastasia_Chaun', 'http://dbpedia.org/resource/Anastasia_Davydova', 'http://dbpedia.org/resource/Anastasia_Gloushkov', 'http://dbpedia.org/resource/Anastasiya_Yermakova', 'http://dbpedia.org/resource/Andrey_Dunayev', 'http://dbpedia.org/resource/Anisya_Olkhova', 'http://dbpedia.org/resource/Anton_Chupkov', 'http://dbpedia.org/resource/Artem_Lobuzov', 'http://dbpedia.org/resource/Daniela_Inácio', 'http://dbpedia.org/resource/Daniil_Pasynkov', 'http://dbpedia.org/resource/Danil_Haustov', 'http://dbpedia.org/resource/Daria_Vaskina', 'http://dbpedia.org/resource/Elena_Prokofyeva', 'http://dbpedia.org/resource/Elena_Sokolova_(swimmer)', 'http://dbpedia.org/resource/Elvira_Khasyanova', 'http://dbpedia.org/resource/Galina_Sosnova', 'http://dbpedia.org/resource/Gelena_Topilina', 'http://dbpedia.org/resource/Irina_Pozdnyakova', 'http://dbpedia.org/resource/Kliment_Kolesnikov', 'http://dbpedia.org/resource/Lyubov_Kobzova', 'http://dbpedia.org/resource/Maria_Gromova_(swimmer)', 'http://dbpedia.org/resource/Maria_Shurochkina', 'http://dbpedia.org/resource/Maria_Ugolkova', 'http://dbpedia.org/resource/Marina_Chepurkova', 'http://dbpedia.org/resource/Marina_Klyuchnikova', 'http://dbpedia.org/resource/Mariya_Chernyayeva', 'http://dbpedia.org/resource/Mariya_Gromova', 'http://dbpedia.org/resource/Mikhail_Dovgalyuk', 'http://dbpedia.org/resource/Mikhail_Polischuk', 'http://dbpedia.org/resource/Natalya_Mikhaylova', 'http://dbpedia.org/resource/Nika_Godun', 'http://dbpedia.org/resource/Nikolai_Pankin', 'http://dbpedia.org/resource/Nikolay_Suhorukov', 'http://dbpedia.org/resource/Oleg_Fotin', 'http://dbpedia.org/resource/Olesya_Vladykina', 'http://dbpedia.org/resource/Olga_Sedakova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Rozaliya_Nasretdinova', 'http://dbpedia.org/resource/Ruslan_Gaziev', 'http://dbpedia.org/resource/Semyon_Belits-Geiman', 'http://dbpedia.org/resource/Sergey_Gusev_(swimmer)', 'http://dbpedia.org/resource/Sergey_Lavrenov', 'http://dbpedia.org/resource/Svetlana_Chimrova', 'http://dbpedia.org/resource/Svetlana_Romashina', 'http://dbpedia.org/resource/Tamara_Sosnova', 'http://dbpedia.org/resource/Tatyana_Titova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Valentin_Kuzmin', 'http://dbpedia.org/resource/Valentina_Poznyak', 'http://dbpedia.org/resource/Valentina_Tutayeva', 'http://dbpedia.org/resource/Viktor_Drobinsky', 'http://dbpedia.org/resource/Viktor_Mazanov', 'http://dbpedia.org/resource/Vladimir_Kravchenko', 'http://dbpedia.org/resource/Vladimir_Mikheyev', 'http://dbpedia.org/resource/Vladislav_Grinev', 'http://dbpedia.org/resource/Yekaterina_Vinogradova', 'http://dbpedia.org/resource/Yelena_Makarova', 'http://dbpedia.org/resource/Yevgeny_Korotyshkin', 'http://dbpedia.org/resource/Yevhen_Mykhailov']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Star_Wars_original_trilogy']</t>
+  </si>
+  <si>
+    <t>['8848.86', 'http://dbpedia.org/resource/Alpide_belt']</t>
+  </si>
+  <si>
+    <t>['10100166']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['44.8', '44.8056']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
+  </si>
+  <si>
+    <t>['1.8']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Ken_Follett']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
+  </si>
+  <si>
     <t>['Query failed']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Alpide_belt']</t>
-  </si>
-  <si>
-    <t>['33']</t>
-  </si>
-  <si>
-    <t>['1986-02-28']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
-  </si>
-  <si>
-    <t>['60.0']</t>
-  </si>
-  <si>
-    <t>['No answer']</t>
-  </si>
-  <si>
-    <t>['4860']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
-  </si>
-  <si>
-    <t>['1978']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
-  </si>
-  <si>
-    <t>['106.07']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
-  </si>
-  <si>
-    <t>['5360351985']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
-  </si>
-  <si>
-    <t>['1735-10-30']</t>
-  </si>
-  <si>
-    <t>['446828803']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Renminbi']</t>
-  </si>
-  <si>
-    <t>['1616-04-23']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/140_Proof', 'http://dbpedia.org/resource/495_Communications', 'http://dbpedia.org/resource/72andSunny', 'http://dbpedia.org/resource/Abbott_Mead_Vickers_BBDO', 'http://dbpedia.org/resource/AdDuplex', 'http://dbpedia.org/resource/AdForum', 'http://dbpedia.org/resource/AdGreetz', 'http://dbpedia.org/resource/AdKeeper', 'http://dbpedia.org/resource/AdPack_USA', 'http://dbpedia.org/resource/All_By_Students_Notebooks', 'http://dbpedia.org/resource/Amalgamated_Advertising', 'http://dbpedia.org/resource/Anomaly_(advertising_agency)', 'http://dbpedia.org/resource/Argentonia', 'http://dbpedia.org/resource/AudienceProject', 'http://dbpedia.org/resource/B-Reel', 'http://dbpedia.org/resource/Bang_(company)', 'http://dbpedia.org/resource/Barker_(advertising_agency)', 'http://dbpedia.org/resource/Barkley_Inc.', 'http://dbpedia.org/resource/Bastion_Collective', 'http://dbpedia.org/resource/BBB_National_Programs', 'http://dbpedia.org/resource/Beasley_Broadcast_Group', 'http://dbpedia.org/resource/Berk_Communications', 'http://dbpedia.org/resource/Blue_Zoo_Animation_Studio', 'http://dbpedia.org/resource/BlueFocus_Communication_Group', 'http://dbpedia.org/resource/Boase_Massimi_Pollitt', 'http://dbpedia.org/resource/Boats_Group', 'http://dbpedia.org/resource/Bookmark_Content_and_Communications', 'http://dbpedia.org/resource/Brand_Keys', 'http://dbpedia.org/resource/Bromley_Originate_Change', 'http://dbpedia.org/resource/Butler,_Shine,_Stern_&amp;_Partners', 'http://dbpedia.org/resource/BYU_Adlab', 'http://dbpedia.org/resource/Cabe_Rawit_Marketing_Communications', 'http://dbpedia.org/resource/Camp+King', 'http://dbpedia.org/resource/Campaigns_&amp;_Grey', 'http://dbpedia.org/resource/Carbone_Smolan_Agency', "http://dbpedia.org/resource/Children's_Advertising_Review_Unit", 'http://dbpedia.org/resource/CKS_Group', 'http://dbpedia.org/resource/Classified_Ventures', 'http://dbpedia.org/resource/Clever_Bins', 'http://dbpedia.org/resource/Collett_Dickenson_Pearce', 'http://dbpedia.org/resource/Commonground/MGS', 'http://dbpedia.org/resource/Compass_Media_Networks', 'http://dbpedia.org/resource/Cordiant_Communications_Group', 'http://dbpedia.org/resource/Creature_(company)', 'http://dbpedia.org/resource/Crispin_Porter_+_Bogusky', 'http://dbpedia.org/resource/Dancer_Fitzgerald_Sample', 'http://dbpedia.org/resource/Dancing_Diablo', 'http://dbpedia.org/resource/DCF_Advertising', 'http://dbpedia.org/resource/Doe-Anderson_Inc.', 'http://dbpedia.org/resource/Dominion_Enterprises', 'http://dbpedia.org/resource/Doner_Company', 'http://dbpedia.org/resource/Door_Number_3', 'http://dbpedia.org/resource/Droga5', 'http://dbpedia.org/resource/DRUM_Agency', 'http://dbpedia.org/resource/Due_North_Communications', 'http://dbpedia.org/resource/Earthsky_Pictures', 'http://dbpedia.org/resource/Emakina_Group', 'http://dbpedia.org/resource/Empower_(company)', 'http://dbpedia.org/resource/Eniro', 'http://dbpedia.org/resource/Equativ', 'http://dbpedia.org/resource/Essence_Global', 'http://dbpedia.org/resource/Euro_RSCG_London', 'http://dbpedia.org/resource/FCB_(advertising_agency)', 'http://dbpedia.org/resource/Flock_Edit', 'http://dbpedia.org/resource/Flurry_(company)', 'http://dbpedia.org/resource/Focus_Media', 'http://dbpedia.org/resource/Forum_Communications_Company', 'http://dbpedia.org/resource/Fred_&amp;_Farid_Group', 'http://dbpedia.org/resource/Gigil', 'http://dbpedia.org/resource/Goodby,_Silverstein_&amp;_Partners', 'http://dbpedia.org/resource/Google', 'http://dbpedia.org/resource/Gotham,_Inc.', 'http://dbpedia.org/resource/Grey_Global_Group', 'http://dbpedia.org/resource/Griffin-Bacal_Advertising', 'http://dbpedia.org/resource/GSD&amp;M', 'http://dbpedia.org/resource/GTB_(advertising_agency)', 'http://dbpedia.org/resource/GumCo', 'http://dbpedia.org/resource/GWI_(company)', 'http://dbpedia.org/resource/Hogarth_Worldwide', 'http://dbpedia.org/resource/I_Wear_Your_Shirt', 'http://dbpedia.org/resource/ID_(public_relations)', 'http://dbpedia.org/resource/Initiative_(agency)', 'http://dbpedia.org/resource/Invite_Media', 'http://dbpedia.org/resource/Jackson_Radio_Works', 'http://dbpedia.org/resource/Janimation', 'http://dbpedia.org/resource/Johannes_Leonardo', 'http://dbpedia.org/resource/Johnstone_and_Cushing', 'http://dbpedia.org/resource/Karmarama_(advertising_agency)', 'http://dbpedia.org/resource/Ketchum_Inc.', 'http://dbpedia.org/resource/La_comunidad_(agency)', 'http://dbpedia.org/resource/Lamar_Advertising_Company', 'http://dbpedia.org/resource/LatinWorks', 'http://dbpedia.org/resource/Laughlin_Constable', 'http://dbpedia.org/resource/Le_Book', 'http://dbpedia.org/resource/Level_Studios', 'http://dbpedia.org/resource/Logical_Position', 'http://dbpedia.org/resource/Lopez_Negrete_Communications', 'http://dbpedia.org/resource/Lowe_Roche', 'http://dbpedia.org/resource/LPM_Comunicação', 'http://dbpedia.org/resource/M&amp;C_Saatchi', 'http://dbpedia.org/resource/Magnite_Inc', 'http://dbpedia.org/resource/Makovsky_(agency)', 'http://dbpedia.org/resource/MARC_USA', 'http://dbpedia.org/resource/Marfeel', 'http://dbpedia.org/resource/Marmoset_(music_agency)', 'http://dbpedia.org/resource/Martin_Williams_Advertising', 'http://dbpedia.org/resource/Mason_&amp;_Associates', 'http://dbpedia.org/resource/Massive_Incorporated', 'http://dbpedia.org/resource/Matari_Advertising', 'http://dbpedia.org/resource/Matomy_Media', 'http://dbpedia.org/resource/Maximum_Effort', 'http://dbpedia.org/resource/Maxus_(media_agency)', 'http://dbpedia.org/resource/Mc_Group', 'http://dbpedia.org/resource/McCann_(company)', 'http://dbpedia.org/resource/McGarrah_Jessee', 'http://dbpedia.org/resource/McKinney_(advertising_agency)', 'http://dbpedia.org/resource/MDB_Communications', 'http://dbpedia.org/resource/Mediahub', 'http://dbpedia.org/resource/Mekanism', 'http://dbpedia.org/resource/Merchlar', 'http://dbpedia.org/resource/MGSCOMM', 'http://dbpedia.org/resource/Mindshare_(firm)', 'http://dbpedia.org/resource/Mithun_Agency', 'http://dbpedia.org/resource/MMA_Creative', 'http://dbpedia.org/resource/Modernista!', 'http://dbpedia.org/resource/Moxie_Sozo', 'http://dbpedia.org/resource/MullenLowe_U.S.', 'http://dbpedia.org/resource/N._W._Ayer_&amp;_Son', 'http://dbpedia.org/resource/Narcity_Media', 'http://dbpedia.org/resource/Nativex', 'http://dbpedia.org/resource/NBG_Radio_Network', 'http://dbpedia.org/resource/Noble_(company)', 'http://dbpedia.org/resource/Nova_M_Radio', 'http://dbpedia.org/resource/Ogilvy_(agency)', 'http://dbpedia.org/resource/OMD_Worldwide', 'http://dbpedia.org/resource/OOh!media', 'http://dbpedia.org/resource/OwnLocal', 'http://dbpedia.org/resource/PeakBiety_Branding_+_Advertising', 'http://dbpedia.org/resource/Porterhouse_Media', 'http://dbpedia.org/resource/Premiere_Networks', 'http://dbpedia.org/resource/Promotus_Advertising', 'http://dbpedia.org/resource/Proximity_Worldwide', 'http://dbpedia.org/resource/Purple_Strategies', 'http://dbpedia.org/resource/Quarry_(company)', 'http://dbpedia.org/resource/R/GA', 'http://dbpedia.org/resource/R%5CWest', 'http://dbpedia.org/resource/Radio_Express', 'http://dbpedia.org/resource/Razor_Creative', 'http://dbpedia.org/resource/Red_Zebra_Broadcasting', 'http://dbpedia.org/resource/Richards/Carlberg', 'http://dbpedia.org/resource/Rothco', 'http://dbpedia.org/resource/Scholz_&amp;_Friends', 'http://dbpedia.org/resource/Screenvision', 'http://dbpedia.org/resource/Seiter_&amp;_Miller_Advertising', 'http://dbpedia.org/resource/Sensis_(company)', 'http://dbpedia.org/resource/Serviceplan', 'http://dbpedia.org/resource/Siren_interactive', 'http://dbpedia.org/resource/Sirved', 'http://dbpedia.org/resource/Smith_(advertising_agency)', 'http://dbpedia.org/resource/Soccer_United_Marketing', 'http://dbpedia.org/resource/Stein_IAS', 'http://dbpedia.org/resource/Stevens_Reed_Curcio_&amp;_Potholm', 'http://dbpedia.org/resource/Stinkdigital', 'http://dbpedia.org/resource/Storeboard_Media', 'http://dbpedia.org/resource/Strata_(company)', 'http://dbpedia.org/resource/Stuart_Advertising_Agency', 'http://dbpedia.org/resource/Sullivan_&amp;_Company', 'http://dbpedia.org/resource/T3_(company)', 'http://dbpedia.org/resource/TBWA_Worldwide', 'http://dbpedia.org/resource/TBWA%5CChiat%5CDay', 'http://dbpedia.org/resource/Telmar_(company)', 'http://dbpedia.org/resource/The_Ant_Farm', 'http://dbpedia.org/resource/The_Barbarian_Group', 'http://dbpedia.org/resource/The_Kluger_Agency', 'http://dbpedia.org/resource/The_Marketing_Group', 'http://dbpedia.org/resource/The_North_Alliance', 'http://dbpedia.org/resource/The_San_Jose_Group', 'http://dbpedia.org/resource/TheSwizzle.com', 'http://dbpedia.org/resource/Titan_(transit_advertising_company)', 'http://dbpedia.org/resource/TM_Advertising', 'http://dbpedia.org/resource/Tocquigny', 'http://dbpedia.org/resource/Tombras_Group', 'http://dbpedia.org/resource/Topham_Guerin', 'http://dbpedia.org/resource/Toth_Brand_Imaging', 'http://dbpedia.org/resource/Traction_(agency)', 'http://dbpedia.org/resource/Tremor_International', 'http://dbpedia.org/resource/Tribal_Worldwide', 'http://dbpedia.org/resource/UNIT9', 'http://dbpedia.org/resource/United_Group', 'http://dbpedia.org/resource/UWG_Inc.', 'http://dbpedia.org/resource/Will_Vinton__Productions__1', 'http://dbpedia.org/resource/Work_Labs', 'http://dbpedia.org/resource/WPP-Scangroup', 'http://dbpedia.org/resource/Wunderman_Thompson', 'http://dbpedia.org/resource/Wunderman', 'http://dbpedia.org/resource/XM_Gravity_Indonesia', 'http://dbpedia.org/resource/YachtWorld', 'http://dbpedia.org/resource/ZERO_VFX']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal', 'http://dbpedia.org/resource/Province_No._1', 'http://dbpedia.org/resource/Solukhumbu_District', 'http://dbpedia.org/resource/Tibet_Autonomous_Region', 'http://dbpedia.org/resource/Tingri_County', 'http://dbpedia.org/resource/Xigazê']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Dallas']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/East_River']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Aleksandr_Pletnev', 'http://dbpedia.org/resource/Aleksandr_Samsonov', 'http://dbpedia.org/resource/Aleksey_Matveyev', 'http://dbpedia.org/resource/Alexandra_Patskevich', 'http://dbpedia.org/resource/Alexey_Zinovyev', 'http://dbpedia.org/resource/Alla_Shishkina', 'http://dbpedia.org/resource/Anastasia_Chaun', 'http://dbpedia.org/resource/Anastasia_Davydova', 'http://dbpedia.org/resource/Anastasia_Gloushkov', 'http://dbpedia.org/resource/Anastasiya_Yermakova', 'http://dbpedia.org/resource/Andrey_Dunayev', 'http://dbpedia.org/resource/Anisya_Olkhova', 'http://dbpedia.org/resource/Anton_Chupkov', 'http://dbpedia.org/resource/Artem_Lobuzov', 'http://dbpedia.org/resource/Daniela_Inácio', 'http://dbpedia.org/resource/Daniil_Pasynkov', 'http://dbpedia.org/resource/Danil_Haustov', 'http://dbpedia.org/resource/Daria_Vaskina', 'http://dbpedia.org/resource/Elena_Prokofyeva', 'http://dbpedia.org/resource/Elena_Sokolova_(swimmer)', 'http://dbpedia.org/resource/Elvira_Khasyanova', 'http://dbpedia.org/resource/Galina_Sosnova', 'http://dbpedia.org/resource/Gelena_Topilina', 'http://dbpedia.org/resource/Irina_Pozdnyakova', 'http://dbpedia.org/resource/Kliment_Kolesnikov', 'http://dbpedia.org/resource/Lyubov_Kobzova', 'http://dbpedia.org/resource/Maria_Gromova_(swimmer)', 'http://dbpedia.org/resource/Maria_Shurochkina', 'http://dbpedia.org/resource/Maria_Ugolkova', 'http://dbpedia.org/resource/Marina_Chepurkova', 'http://dbpedia.org/resource/Marina_Klyuchnikova', 'http://dbpedia.org/resource/Mariya_Chernyayeva', 'http://dbpedia.org/resource/Mariya_Gromova', 'http://dbpedia.org/resource/Mikhail_Dovgalyuk', 'http://dbpedia.org/resource/Mikhail_Polischuk', 'http://dbpedia.org/resource/Natalya_Mikhaylova', 'http://dbpedia.org/resource/Nika_Godun', 'http://dbpedia.org/resource/Nikolai_Pankin', 'http://dbpedia.org/resource/Nikolay_Suhorukov', 'http://dbpedia.org/resource/Oleg_Fotin', 'http://dbpedia.org/resource/Olesya_Vladykina', 'http://dbpedia.org/resource/Olga_Sedakova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Rozaliya_Nasretdinova', 'http://dbpedia.org/resource/Ruslan_Gaziev', 'http://dbpedia.org/resource/Semyon_Belits-Geiman', 'http://dbpedia.org/resource/Sergey_Gusev_(swimmer)', 'http://dbpedia.org/resource/Sergey_Lavrenov', 'http://dbpedia.org/resource/Svetlana_Chimrova', 'http://dbpedia.org/resource/Svetlana_Romashina', 'http://dbpedia.org/resource/Tamara_Sosnova', 'http://dbpedia.org/resource/Tatyana_Titova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Valentin_Kuzmin', 'http://dbpedia.org/resource/Valentina_Poznyak', 'http://dbpedia.org/resource/Valentina_Tutayeva', 'http://dbpedia.org/resource/Viktor_Drobinsky', 'http://dbpedia.org/resource/Viktor_Mazanov', 'http://dbpedia.org/resource/Vladimir_Kravchenko', 'http://dbpedia.org/resource/Vladimir_Mikheyev', 'http://dbpedia.org/resource/Vladislav_Grinev', 'http://dbpedia.org/resource/Yekaterina_Vinogradova', 'http://dbpedia.org/resource/Yelena_Makarova', 'http://dbpedia.org/resource/Yevgeny_Korotyshkin', 'http://dbpedia.org/resource/Yevhen_Mykhailov']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Star_Wars_original_trilogy']</t>
-  </si>
-  <si>
-    <t>['8848.86', 'http://dbpedia.org/resource/Alpide_belt']</t>
-  </si>
-  <si>
-    <t>['10100166']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
-  </si>
-  <si>
-    <t>['2']</t>
-  </si>
-  <si>
-    <t>['44.8', '44.8056']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
-  </si>
-  <si>
-    <t>['1.8']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Ken_Follett']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
   </si>
   <si>
@@ -1147,6 +1820,9 @@
     <t>['Adele Laurie Blue Adkins']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Seven_Seas_of_Rhye']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Czech_koruna']</t>
   </si>
   <si>
@@ -1159,6 +1835,9 @@
     <t>['http://dbpedia.org/resource/Julius_Lester']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Fawlty_Towers', "http://dbpedia.org/resource/Monty_Python's_Fliegender_Zirkus", "http://dbpedia.org/resource/Monty_Python's_Flying_Circus", "http://dbpedia.org/resource/Monty_Python's_Personal_Best", 'http://dbpedia.org/resource/Parrot_Sketch_Not_Included_–_20_Years_of_Monty_Python', 'http://dbpedia.org/resource/Python_Night_–_30_Years_of_Monty_Python']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Abdulrazak_Gurnah', 'http://dbpedia.org/resource/Aleksandr_Solzhenitsyn', 'http://dbpedia.org/resource/Alice_Munro', 'http://dbpedia.org/resource/Annie_Ernaux', 'http://dbpedia.org/resource/Czesław_Miłosz', "http://dbpedia.org/resource/Eugene_O'Neill", 'http://dbpedia.org/resource/Gerhart_Hauptmann', 'http://dbpedia.org/resource/Harold_Pinter', 'http://dbpedia.org/resource/Hermann_Hesse', 'http://dbpedia.org/resource/J._M._Coetzee', 'http://dbpedia.org/resource/John_Steinbeck', 'http://dbpedia.org/resource/José_Saramago', 'http://dbpedia.org/resource/Juan_Ramón_Jiménez', 'http://dbpedia.org/resource/Louise_Glück', 'http://dbpedia.org/resource/Octavio_Paz', 'http://dbpedia.org/resource/Olga_Tokarczuk', 'http://dbpedia.org/resource/Patrick_Modiano', 'http://dbpedia.org/resource/Patrick_White', 'http://dbpedia.org/resource/Sorley_MacLean', 'http://dbpedia.org/resource/Svetlana_Alexievich', 'http://dbpedia.org/resource/Thomas_Mann', 'http://dbpedia.org/resource/Toni_Morrison', 'http://dbpedia.org/resource/William_Faulkner', 'http://dbpedia.org/resource/William_Golding__William_Golding__1', 'http://dbpedia.org/resource/Wisława_Szymborska']</t>
   </si>
   <si>
@@ -1180,6 +1859,9 @@
     <t>['1325']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Volkov', 'http://dbpedia.org/resource/Aleksandr_Ivanchenkov', 'http://dbpedia.org/resource/Aleksandr_Laveykin', 'http://dbpedia.org/resource/Aleksandr_Nikolayevich_Balandin', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov__Aleksandr_Pavlovich_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Serebrov', 'http://dbpedia.org/resource/Aleksandr_Viktorenko', 'http://dbpedia.org/resource/Aleksei_Gubarev', 'http://dbpedia.org/resource/Aleksei_Yeliseyev', 'http://dbpedia.org/resource/Anatoly_Berezovoy', 'http://dbpedia.org/resource/Anatoly_Filipchenko', 'http://dbpedia.org/resource/Anatoly_Levchenko__Anatoly_Semyonovich_Levchenko__1', 'http://dbpedia.org/resource/Andriyan_Nikolayev', 'http://dbpedia.org/resource/Boris_Andreyev_(cosmonaut)', 'http://dbpedia.org/resource/Boris_Volynov', 'http://dbpedia.org/resource/Boris_Yegorov', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Sarafanov', 'http://dbpedia.org/resource/Gennady_Strekalov', 'http://dbpedia.org/resource/Georgy_Dobrovolsky', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Ivan_Anikeyev', 'http://dbpedia.org/resource/Konstantin_Feoktistov', 'http://dbpedia.org/resource/Leonid_Ivanov_(test_pilot)', 'http://dbpedia.org/resource/Leonid_Kizim', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Lev_Dyomin', 'http://dbpedia.org/resource/Mars_Rafikov', 'http://dbpedia.org/resource/Nikolai_Rukavishnikov', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Grigoriyevich_Kononenko', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Pavel_Belyayev', 'http://dbpedia.org/resource/Sergey_Volkov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Vozovikov', 'http://dbpedia.org/resource/Valentin_Bondarenko', 'http://dbpedia.org/resource/Valentin_Lebedev', 'http://dbpedia.org/resource/Valery_Bykovsky', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Rozhdestvensky', 'http://dbpedia.org/resource/Valery_Ryumin', 'http://dbpedia.org/resource/Vasily_Lazarev', 'http://dbpedia.org/resource/Viktor_Gorbatko', 'http://dbpedia.org/resource/Viktor_Patsayev', 'http://dbpedia.org/resource/Viktor_Savinykh', 'http://dbpedia.org/resource/Vitaly_Sevastyanov', 'http://dbpedia.org/resource/Vladimir_Aksyonov', 'http://dbpedia.org/resource/Vladimir_Dzhanibekov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Solovyov_(cosmonaut)', 'http://dbpedia.org/resource/Vladimir_Vasyutin', 'http://dbpedia.org/resource/Vladislav_Volkov', 'http://dbpedia.org/resource/Vyacheslav_Zudov', 'http://dbpedia.org/resource/Yevgeny_Khrunov', 'http://dbpedia.org/resource/Yuri_Artyukhin', 'http://dbpedia.org/resource/Yuri_Glazkov', 'http://dbpedia.org/resource/Yuri_Malyshev_(cosmonaut)', 'http://dbpedia.org/resource/Yuri_Romanenko']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
   </si>
   <si>
@@ -1216,15 +1898,9 @@
     <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Aida_(musical)', 'http://dbpedia.org/resource/Billy_Elliot_the_Musical', 'http://dbpedia.org/resource/Lestat_(musical)', 'http://dbpedia.org/resource/Tammy_Faye_(musical)', 'http://dbpedia.org/resource/The_Devil_Wears_Prada_(musical)', 'http://dbpedia.org/resource/The_Lion_King_(musical)']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/RCA_Victor']</t>
   </si>
   <si>
-    <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
   </si>
   <si>
@@ -1249,28 +1925,16 @@
     <t>['44.8']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
-  </si>
-  <si>
     <t>['9.98E10']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Brigitte_Mira', 'http://dbpedia.org/resource/David_Epley_(entertainer)', 'http://dbpedia.org/resource/Friederike_Caroline_Neuber', 'http://dbpedia.org/resource/Gordon_Hopkirk', 'http://dbpedia.org/resource/Shimon_Schwarzschild', 'http://dbpedia.org/resource/Walter_Bluhm', 'http://dbpedia.org/resource/Walther_Süssenguth']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Seven_Seas_of_Rhye']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Cass_Browne']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Fawlty_Towers', "http://dbpedia.org/resource/Monty_Python's_Fliegender_Zirkus", "http://dbpedia.org/resource/Monty_Python's_Flying_Circus", "http://dbpedia.org/resource/Monty_Python's_Personal_Best", 'http://dbpedia.org/resource/Parrot_Sketch_Not_Included_–_20_Years_of_Monty_Python', 'http://dbpedia.org/resource/Python_Night_–_30_Years_of_Monty_Python']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/A._J._Bramlett', 'http://dbpedia.org/resource/A._J._Brodeur', 'http://dbpedia.org/resource/A._J._Davis_(basketball)', 'http://dbpedia.org/resource/A._J._Edu', 'http://dbpedia.org/resource/A._J._Granger', 'http://dbpedia.org/resource/A._J._Hammons', 'http://dbpedia.org/resource/A._W._Davis', 'http://dbpedia.org/resource/A._W._Holt', 'http://dbpedia.org/resource/A.C._Green', "http://dbpedia.org/resource/A'Darius_Pegues", 'http://dbpedia.org/resource/Aamir_Simms', 'http://dbpedia.org/resource/Aaric_Murray', 'http://dbpedia.org/resource/Aaron_Anderson_(basketball)', 'http://dbpedia.org/resource/Aaron_Epps', 'http://dbpedia.org/resource/Aaron_Falzon', 'http://dbpedia.org/resource/Aaron_Gordon', 'http://dbpedia.org/resource/Aaron_Gray', 'http://dbpedia.org/resource/Aaron_Harper_(basketball)', 'http://dbpedia.org/resource/Aaron_James_(basketball)', 'http://dbpedia.org/resource/Aaron_McGhee', 'http://dbpedia.org/resource/Aaron_White_(basketball)', 'http://dbpedia.org/resource/Aaron_Williams_(basketball)', 'http://dbpedia.org/resource/Abdel_Kader_Sylla', 'http://dbpedia.org/resource/Abdelrahman_Abdelhaleem', 'http://dbpedia.org/resource/Abdou_Badji', 'http://dbpedia.org/resource/Abdoul_Karim_Coulibaly', 'http://dbpedia.org/resource/Abdul_Jeelani', 'http://dbpedia.org/resource/Abdul_Shamsid-Deen', 'http://dbpedia.org/resource/Abdul_Yahaya', 'http://dbpedia.org/resource/Abdul-Malik_Abu', 'http://dbpedia.org/resource/Abdullah_Matalkeh', 'http://dbpedia.org/resource/Abdullahi_Kuso', 'http://dbpedia.org/resource/Abibou_Toure', 'http://dbpedia.org/resource/Abu_Kigab', 'http://dbpedia.org/resource/Ace_Custis', 'http://dbpedia.org/resource/Ace_Gruenig', 'http://dbpedia.org/resource/Acie_Earl', 'http://dbpedia.org/resource/AD_Smith', 'http://dbpedia.org/resource/Adam_Chubb', 'http://dbpedia.org/resource/Adam_Hrycaniuk', 'http://dbpedia.org/resource/Adam_Keefe_(basketball)', 'http://dbpedia.org/resource/Adam_Kemp', 'http://dbpedia.org/resource/Adam_Koch', 'http://dbpedia.org/resource/Adam_Łapeta', 'http://dbpedia.org/resource/Adam_Morrison', 'http://dbpedia.org/resource/Adam_Parada', 'http://dbpedia.org/resource/Adam_Pecháček', 'http://dbpedia.org/resource/Adam_Woodbury', 'http://dbpedia.org/resource/Adama_Diakhite', 'http://dbpedia.org/resource/Adama_Sanogo', 'http://dbpedia.org/resource/Adarrial_Smylie', 'http://dbpedia.org/resource/Adem_Bona', 'http://dbpedia.org/resource/Adem_Ören', 'http://dbpedia.org/resource/Adnan_Hodžić', 'http://dbpedia.org/resource/Adonal_Foyle', 'http://dbpedia.org/resource/Adreian_Payne', 'http://dbpedia.org/resource/Adrian_Branch', 'http://dbpedia.org/resource/Adrian_Caldwell', 'http://dbpedia.org/resource/Adrian_Moss_(basketball,_born_1981)', 'http://dbpedia.org/resource/Adrián_Zamora', 'http://dbpedia.org/resource/Aerick_Sanders', 'http://dbpedia.org/resource/Agustín_Caffaro', 'http://dbpedia.org/resource/Aher_Uguak', 'http://dbpedia.org/resource/Ahmad_Ibrahim_(basketball)', 'http://dbpedia.org/resource/Ahmad_Nivins', 'http://dbpedia.org/resource/Ahsan_Asadullah', 'http://dbpedia.org/resource/Aidan_Igiehon', 'http://dbpedia.org/resource/Ajak_Magot', 'http://dbpedia.org/resource/Ajdin_Penava', 'http://dbpedia.org/resource/Ajou_Deng', 'http://dbpedia.org/resource/Akin_Akingbala', 'http://dbpedia.org/resource/Al_Beard', 'http://dbpedia.org/resource/Al_Bunge', 'http://dbpedia.org/resource/Al_Carlson_(basketball)', 'http://dbpedia.org/resource/Al_Cueto', 'http://dbpedia.org/resource/Al_Fleming_(basketball)', 'http://dbpedia.org/resource/Al_Harrington', 'http://dbpedia.org/resource/Al_Henry', 'http://dbpedia.org/resource/Al_Horford', 'http://dbpedia.org/resource/Al_Jefferson', 'http://dbpedia.org/resource/Al_Miksis', 'http://dbpedia.org/resource/Al_Salvadori', 'http://dbpedia.org/resource/Al_Sanders_(basketball)', 'http://dbpedia.org/resource/Al_Thornton', 'http://dbpedia.org/resource/Al_Tucker', 'http://dbpedia.org/resource/Al-Farouq_Aminu', 'http://dbpedia.org/resource/Alaa_Abdelnaby', 'http://dbpedia.org/resource/Alade_Aminu', 'http://dbpedia.org/resource/Alain_Koffi', 'http://dbpedia.org/resource/Alan_Hardy_(basketball)', 'http://dbpedia.org/resource/Alan_Henderson', 'http://dbpedia.org/resource/Alan_Ogg', 'http://dbpedia.org/resource/Alan_Wiggins_Jr.', 'http://dbpedia.org/resource/Alan_Williams_(basketball)', 'http://dbpedia.org/resource/Albert_Almanza', 'http://dbpedia.org/resource/Albert_Burditt', 'http://dbpedia.org/resource/Albert_Culton', 'http://dbpedia.org/resource/Alberto_Corbacho', 'http://dbpedia.org/resource/Alberto_Herreros', 'http://dbpedia.org/resource/Alec_Brown', 'http://dbpedia.org/resource/Alec_Kessler', 'http://dbpedia.org/resource/Alec_Peters', 'http://dbpedia.org/resource/Aleem_Ford', 'http://dbpedia.org/resource/Alekos_Petroulas', 'http://dbpedia.org/resource/Aleks_Marić', 'http://dbpedia.org/resource/Aleksandar_Lazić', 'http://dbpedia.org/resource/Aleksandar_Pavlović', 'http://dbpedia.org/resource/Aleksandar_Radojević', 'http://dbpedia.org/resource/Aleksandar_Šterjov', 'http://dbpedia.org/resource/Aleksandar_Todorović', 'http://dbpedia.org/resource/Aleksandar_Vezenkov', 'http://dbpedia.org/resource/Aleksandar_Zečević_(basketball,_born_1996)', 'http://dbpedia.org/resource/Aleksandr_Boloshev', 'http://dbpedia.org/resource/Aleksej_Pokuševski', 'http://dbpedia.org/resource/Alen_Smailagić', 'http://dbpedia.org/resource/Alessandro_Tonolli', 'http://dbpedia.org/resource/Alex_Chubrevich', 'http://dbpedia.org/resource/Alex_Crisano', 'http://dbpedia.org/resource/Alex_Davis_(basketball)', 'http://dbpedia.org/resource/Alex_English', 'http://dbpedia.org/resource/Alex_Galindo', 'http://dbpedia.org/resource/Alex_Gilbert_(basketball)', 'http://dbpedia.org/resource/Alex_Groza', 'http://dbpedia.org/resource/Alex_Hannum', 'http://dbpedia.org/resource/Alex_Holcombe', 'http://dbpedia.org/resource/Alex_Jensen', 'http://dbpedia.org/resource/Alex_Jones_(basketball)', 'http://dbpedia.org/resource/Alex_King_(basketball)', 'http://dbpedia.org/resource/Alex_Kirk', 'http://dbpedia.org/resource/Alex_Len', 'http://dbpedia.org/resource/Alex_Liatsos', 'http://dbpedia.org/resource/Álex_Mumbrú', 'http://dbpedia.org/resource/Alex_Murphy_(basketball)', 'http://dbpedia.org/resource/Alex_Oriakhi', 'http://dbpedia.org/resource/Alex_Poythress', 'http://dbpedia.org/resource/Alex_Rosenberg_(basketball)', 'http://dbpedia.org/resource/Alex_Stepheson', 'http://dbpedia.org/resource/Alex_Stivrins', 'http://dbpedia.org/resource/Álex_Suárez_(basketball)', 'http://dbpedia.org/resource/Alex_Tyus', 'http://dbpedia.org/resource/Alexander_Belov', 'http://dbpedia.org/resource/Alexander_Ermolinskij', 'http://dbpedia.org/resource/Alexander_Johnson_(basketball)__Alexander_Johnson__1', 'http://dbpedia.org/resource/Alexander_Kühl', 'http://dbpedia.org/resource/Alexander_Lokhmanchuk', 'http://dbpedia.org/resource/Alexander_Nelcha', 'http://dbpedia.org/resource/Alexander_Petrenko', 'http://dbpedia.org/resource/Alexander_Sizonenko', 'http://dbpedia.org/resource/Alexander_Volkov_(basketball)', 'http://dbpedia.org/resource/Alexander_Zakharov_(basketball)', 'http://dbpedia.org/resource/Alexandros_Sigkounas', 'http://dbpedia.org/resource/Alexandros_Varitimiadis', 'http://dbpedia.org/resource/Alexandru_Olah', 'http://dbpedia.org/resource/Alexis_Ajinça', 'http://dbpedia.org/resource/Alexis_Wangmene', 'http://dbpedia.org/resource/Alexis_Yetna', 'http://dbpedia.org/resource/Alfa_Ntiallo', 'http://dbpedia.org/resource/Alfons_Alzamora', 'http://dbpedia.org/resource/Alfonso_Reyes_(basketball)', 'http://dbpedia.org/resource/Alfonzo_McKinnie', 'http://dbpedia.org/resource/Alfred_Aboya', 'http://dbpedia.org/resource/Ali_Demić', 'http://dbpedia.org/resource/Ali_Doraghi', 'http://dbpedia.org/resource/Ali_Fakhreddine', 'http://dbpedia.org/resource/Ali_Haidar_(basketball)', 'http://dbpedia.org/resource/Ali_Jamal_Zaghab', 'http://dbpedia.org/resource/Ali_Traoré', 'http://dbpedia.org/resource/Alihan_Demir', 'http://dbpedia.org/resource/Alison_Bales', 'http://dbpedia.org/resource/Alize_Johnson', 'http://dbpedia.org/resource/Allan_Bristow', 'http://dbpedia.org/resource/Alonzo_Mourning', 'http://dbpedia.org/resource/Alperen_Şengün', 'http://dbpedia.org/resource/Alpha_Diallo_(basketball,_born_1997)', 'http://dbpedia.org/resource/Alpha_Kaba', 'http://dbpedia.org/resource/Alton_Ford', 'http://dbpedia.org/resource/Alton_Lister', 'http://dbpedia.org/resource/Alvan_Adams', 'http://dbpedia.org/resource/Álvaro_Teherán', 'http://dbpedia.org/resource/Alvin_Heggs', 'http://dbpedia.org/resource/Alvin_Jones_(basketball)', 'http://dbpedia.org/resource/Alvin_Scott', 'http://dbpedia.org/resource/Alzhan_Zharmukhamedov', 'http://dbpedia.org/resource/Amadou_Aboubakar_Zaki', 'http://dbpedia.org/resource/Amal_McCaskill', 'http://dbpedia.org/resource/Amanze_Egekeze', "http://dbpedia.org/resource/Amar'e_Stoudemire", 'http://dbpedia.org/resource/Amara_Sy', "http://dbpedia.org/resource/Amath_M'Baye", 'http://dbpedia.org/resource/Amen_Thompson', 'http://dbpedia.org/resource/Amida_Brimah', 'http://dbpedia.org/resource/Amile_Jefferson', 'http://dbpedia.org/resource/Amir_Coffey', 'http://dbpedia.org/resource/Amir_Johnson', 'http://dbpedia.org/resource/Amir_Sedighi', 'http://dbpedia.org/resource/Amjyot_Singh', 'http://dbpedia.org/resource/Amos_Thomas_(basketball)', 'http://dbpedia.org/resource/Anas_Mahmoud', 'http://dbpedia.org/resource/Anatoli_Polivoda', 'http://dbpedia.org/resource/Anatoly_Myshkin', 'http://dbpedia.org/resource/Anatoly_Zourpenko', 'http://dbpedia.org/resource/Anderson_Varejão', 'http://dbpedia.org/resource/Andrae_Patterson__Andrae_Patterson__1', 'http://dbpedia.org/resource/Andray_Blatche', 'http://dbpedia.org/resource/Andre_Brown_(basketball)', 'http://dbpedia.org/resource/Andre_Drummond', 'http://dbpedia.org/resource/André_Ernesto_Stoffel', 'http://dbpedia.org/resource/Andre_Hutson', 'http://dbpedia.org/resource/Andre_Moore', 'http://dbpedia.org/resource/Andre_Patterson', 'http://dbpedia.org/resource/Andre_Riddick', 'http://dbpedia.org/resource/André_Roberson', 'http://dbpedia.org/resource/Andre_Smith_(basketball,_born_1985)', 'http://dbpedia.org/resource/Andre_Smith_(Nebraska_basketball)', 'http://dbpedia.org/resource/Andrea_Bargnani', 'http://dbpedia.org/resource/Andrea_Conti_(basketball)', 'http://dbpedia.org/resource/Andrea_Crosariol', 'http://dbpedia.org/resource/Andrea_Meneghin', 'http://dbpedia.org/resource/Andreas_Glyniadakis', 'http://dbpedia.org/resource/Andreas_Kanonidis', 'http://dbpedia.org/resource/Andreas_Pelekoudas', 'http://dbpedia.org/resource/Andreas_Schreiber', 'http://dbpedia.org/resource/Andreas_Tsoumanis', 'http://dbpedia.org/resource/Andrei_Fetisov', 'http://dbpedia.org/resource/Andrei_Kirilenko', 'http://dbpedia.org/resource/Andrej_Stojaković', 'http://dbpedia.org/resource/Andrés_Guibert', 'http://dbpedia.org/resource/Andrés_Jiménez_(basketball)', 'http://dbpedia.org/resource/Andrés_Nocioni', 'http://dbpedia.org/resource/Andrew_Betts', 'http://dbpedia.org/resource/Andrew_Bogut', 'http://dbpedia.org/resource/Andrew_Bynum', 'http://dbpedia.org/resource/Andrew_DeClercq', 'http://dbpedia.org/resource/Andrew_Fields', 'http://dbpedia.org/resource/Andrew_Fitzgerald_(basketball)', 'http://dbpedia.org/resource/Andrew_Kennedy_(basketball)', 'http://dbpedia.org/resource/Andrew_Lang_(basketball)', 'http://dbpedia.org/resource/Andrew_Nicholson_(basketball)', 'http://dbpedia.org/resource/Andrew_Smith_(basketball,_born_1990)', 'http://dbpedia.org/resource/Andrew_Sullivan_(basketball)', 'http://dbpedia.org/resource/Andrew_Vlahov', 'http://dbpedia.org/resource/Andrew_White_(basketball)', 'http://dbpedia.org/resource/Andrew_Wiggins', 'http://dbpedia.org/resource/Andrey_Desyatnikov', 'http://dbpedia.org/resource/Andrey_Lopatov', 'http://dbpedia.org/resource/Andrianos_Perdikaris', 'http://dbpedia.org/resource/Andris_Biedriņš', 'http://dbpedia.org/resource/Andrius_Jurkūnas', 'http://dbpedia.org/resource/Andrius_Šležas', 'http://dbpedia.org/resource/Andriy_Malysh', 'http://dbpedia.org/resource/Andro_Knego', 'http://dbpedia.org/resource/Andronikos_Gizogiannis', 'http://dbpedia.org/resource/Andy_Ogide', 'http://dbpedia.org/resource/Andy_Panko', 'http://dbpedia.org/resource/Andy_Seigle', 'http://dbpedia.org/resource/Andy_Van_Vliet', 'http://dbpedia.org/resource/Ange_Kouame', 'http://dbpedia.org/resource/Ángel_Delgado', 'http://dbpedia.org/resource/Ángel_García_(basketball,_born_1988)__Ángel_García__1', 'http://dbpedia.org/resource/Angelo_Caloiaro', 'http://dbpedia.org/resource/Angelo_Chol', 'http://dbpedia.org/resource/Angelo_Gigli', 'http://dbpedia.org/resource/Angelo_Reyes_(basketball)', 'http://dbpedia.org/resource/Angelos_Siamandouras', 'http://dbpedia.org/resource/Anna_Prins', 'http://dbpedia.org/resource/Anne_Donovan', 'http://dbpedia.org/resource/Ansley_Truitt', 'http://dbpedia.org/resource/Ansu_Sesay', 'http://dbpedia.org/resource/Antanas_Kavaliauskas', 'http://dbpedia.org/resource/Antawn_Jamison', 'http://dbpedia.org/resource/Ante_Đugum', 'http://dbpedia.org/resource/Ante_Grgurević', 'http://dbpedia.org/resource/Ante_Krapić', 'http://dbpedia.org/resource/Ante_Mašić', 'http://dbpedia.org/resource/Ante_Žižić', 'http://dbpedia.org/resource/Anthony_Avent', 'http://dbpedia.org/resource/Anthony_Bennett_(basketball)', 'http://dbpedia.org/resource/Anthony_Bonner__Anthony_Bonner__1', 'http://dbpedia.org/resource/Anthony_Brown_(basketball)', 'http://dbpedia.org/resource/Anthony_Cook_(basketball)', 'http://dbpedia.org/resource/Anthony_Davis', 'http://dbpedia.org/resource/Anthony_Duruji', 'http://dbpedia.org/resource/Anthony_Elechi', 'http://dbpedia.org/resource/Anthony_Fernandez', 'http://dbpedia.org/resource/Anthony_Frederick', 'http://dbpedia.org/resource/Anthony_Gill_(basketball)', 'http://dbpedia.org/resource/Anthony_Jones_(basketball,_born_1967)', 'http://dbpedia.org/resource/Anthony_King_(basketball)', 'http://dbpedia.org/resource/Anthony_Lawrence_(basketball)', 'http://dbpedia.org/resource/Anthony_Mason_(basketball)', 'http://dbpedia.org/resource/Anthony_McHenry', 'http://dbpedia.org/resource/Anthony_Miller_(basketball)', 'http://dbpedia.org/resource/Anthony_Myles_(basketball,_born_1982)', 'http://dbpedia.org/resource/Anthony_Pelle', 'http://dbpedia.org/resource/Anthony_Pérez_(basketball)', 'http://dbpedia.org/resource/Anthony_Pullard', 'http://dbpedia.org/resource/Anthony_Randolph', 'http://dbpedia.org/resource/Anthony_Richardson_(basketball)', 'http://dbpedia.org/resource/Anthony_Smith_(basketball)', 'http://dbpedia.org/resource/Anthony_Stover', 'http://dbpedia.org/resource/Anthony_Teachey', 'http://dbpedia.org/resource/Anthony_Tolliver', 'http://dbpedia.org/resource/Anthony_Tucker_(basketball)', 'http://dbpedia.org/resource/Antoine_Carr', 'http://dbpedia.org/resource/Antoine_Joseph', 'http://dbpedia.org/resource/Antoine_Rigaudeau', 'http://dbpedia.org/resource/Antoine_Walker', 'http://dbpedia.org/resource/Antoine_Wright_(basketball)', 'http://dbpedia.org/resource/Anton_Odabasi', 'http://dbpedia.org/resource/Anton_Pushkov', 'http://dbpedia.org/resource/Anton_Shoutvin', 'http://dbpedia.org/resource/Anton_Watson', 'http://dbpedia.org/resource/Antone_Warren', 'http://dbpedia.org/resource/Antonio_Campbell', 'http://dbpedia.org/resource/Antonio_Davis__Antonio_Davis__1', 'http://dbpedia.org/resource/Antonio_Granger', 'http://dbpedia.org/resource/Antonio_Harvey', 'http://dbpedia.org/resource/Antonio_Lang', 'http://dbpedia.org/resource/Antonio_Martín_Espina', 'http://dbpedia.org/resource/Antonio_McDyess', 'http://dbpedia.org/resource/Antonio_Meeking', 'http://dbpedia.org/resource/Antonio_Reynolds-Dean', 'http://dbpedia.org/resource/Antonios_Asimakopoulos', 'http://dbpedia.org/resource/Antonis_Fotsis', 'http://dbpedia.org/resource/Antonis_Michaloglou', 'http://dbpedia.org/resource/Antti_Nikkilä', 'http://dbpedia.org/resource/Antwain_Smith', 'http://dbpedia.org/resource/Antwaine_Wiggins', 'http://dbpedia.org/resource/Antwan_January', 'http://dbpedia.org/resource/Antywane_Robinson', 'http://dbpedia.org/resource/Anwar_Ferguson', 'http://dbpedia.org/resource/Anžejs_Pasečņiks', 'http://dbpedia.org/resource/Aramis_Naglić', 'http://dbpedia.org/resource/Archie_Dees', 'http://dbpedia.org/resource/Archie_Marshall_(basketball)', 'http://dbpedia.org/resource/Argiris_Kambouris', 'http://dbpedia.org/resource/Argiris_Papapetrou', 'http://dbpedia.org/resource/Aric_Holman', 'http://dbpedia.org/resource/Arijan_Komazec', 'http://dbpedia.org/resource/Arinze_Onuaku', 'http://dbpedia.org/resource/Aristides_Josuel_dos_Santos', 'http://dbpedia.org/resource/Arman_Zangeneh', 'http://dbpedia.org/resource/Armando_Bacot', 'http://dbpedia.org/resource/Armen_Gilliam', 'http://dbpedia.org/resource/Arnaud_Cotture', 'http://dbpedia.org/resource/Arnett_Moultrie', 'http://dbpedia.org/resource/Arnette_Hallman', 'http://dbpedia.org/resource/Arnie_Risen', 'http://dbpedia.org/resource/Arnis_Vecvagars', 'http://dbpedia.org/resource/Arnold_Van_Opstal', 'http://dbpedia.org/resource/Aron_Baynes', 'http://dbpedia.org/resource/Arsalan_Kazemi', 'http://dbpedia.org/resource/Art_Becker', 'http://dbpedia.org/resource/Art_Hillhouse', 'http://dbpedia.org/resource/Art_Long', 'http://dbpedia.org/resource/Art_Spoelstra', 'http://dbpedia.org/resource/Artem_Zabelin', 'http://dbpedia.org/resource/Arthur_Johnson_(basketball)', 'http://dbpedia.org/resource/Arthur_Kaluma', 'http://dbpedia.org/resource/Arthur_Kenney_(basketball)', 'http://dbpedia.org/resource/Artis_Gilmore', 'http://dbpedia.org/resource/Artsiom_Parakhouski', 'http://dbpedia.org/resource/Artūras_Javtokas', 'http://dbpedia.org/resource/Artūras_Jomantas', 'http://dbpedia.org/resource/Artūras_Masiulis', 'http://dbpedia.org/resource/Arvid_Kramer', 'http://dbpedia.org/resource/Arvydas_Sabonis', 'http://dbpedia.org/resource/Asbjørn_Midtgaard', 'http://dbpedia.org/resource/Asghar_Kardoust', 'http://dbpedia.org/resource/Ashante_Johnson', 'http://dbpedia.org/resource/Ashley_Hamilton_(basketball)', 'http://dbpedia.org/resource/Ashraf_Amaya', 'http://dbpedia.org/resource/Ashton_Pankey', 'http://dbpedia.org/resource/Asi_Taulava', 'http://dbpedia.org/resource/Asım_Pars', 'http://dbpedia.org/resource/Asko_Paade', 'http://dbpedia.org/resource/Assem_Marei', 'http://dbpedia.org/resource/Astan_Dabo', 'http://dbpedia.org/resource/Atanas_Golomeev', 'http://dbpedia.org/resource/Ater_Majok', 'http://dbpedia.org/resource/Atsuya_Ota', 'http://dbpedia.org/resource/Attarius_Norwood', 'http://dbpedia.org/resource/Audie_Norris', 'http://dbpedia.org/resource/Augustine_Rubit', 'http://dbpedia.org/resource/Augusto_Binelli', 'http://dbpedia.org/resource/Augusto_Lima', 'http://dbpedia.org/resource/Augustus_Gilchrist', 'http://dbpedia.org/resource/Aulcie_Perry', 'http://dbpedia.org/resource/Aurimas_Kieža', 'http://dbpedia.org/resource/Aurimas_Majauskas', 'http://dbpedia.org/resource/Ausar_Thompson', 'http://dbpedia.org/resource/Austin_Croshere', 'http://dbpedia.org/resource/Austin_Dufault', 'http://dbpedia.org/resource/Austin_Nichols_(basketball)', 'http://dbpedia.org/resource/Austin_Steed', 'http://dbpedia.org/resource/Austin_Wiley', 'http://dbpedia.org/resource/Axel_Bouteille', 'http://dbpedia.org/resource/Axel_Hervelle', 'http://dbpedia.org/resource/Axel_Toupane', 'http://dbpedia.org/resource/Ayberk_Olmaz', 'http://dbpedia.org/resource/Ayman_Adais', 'http://dbpedia.org/resource/B._B._Davis', 'http://dbpedia.org/resource/B._H._Born', 'http://dbpedia.org/resource/B._J._Johnson_(basketball)', 'http://dbpedia.org/resource/Babacar_Camara', 'http://dbpedia.org/resource/Babacar_Sané', 'http://dbpedia.org/resource/Babacar_Touré', 'http://dbpedia.org/resource/Bailey_Howell', 'http://dbpedia.org/resource/Bakari_Hendrix', 'http://dbpedia.org/resource/Balša_Koprivica', 'http://dbpedia.org/resource/Balša_Radunović', 'http://dbpedia.org/resource/Bam_Adebayo', 'http://dbpedia.org/resource/Bamba_Fall', 'http://dbpedia.org/resource/Bambale_Osby', 'http://dbpedia.org/resource/Bara_Diop', 'http://dbpedia.org/resource/Bariša_Krasić', 'http://dbpedia.org/resource/Barış_Hersek', 'http://dbpedia.org/resource/Barney_Cable', 'http://dbpedia.org/resource/Barry_Mungar', 'http://dbpedia.org/resource/Barry_Nelson_(basketball)', 'http://dbpedia.org/resource/Barry_Sumpter', 'http://dbpedia.org/resource/Barry_Yates', 'http://dbpedia.org/resource/Bas_Veenstra', 'http://dbpedia.org/resource/Bassel_Bawji', 'http://dbpedia.org/resource/Bayard_Forrest', 'http://dbpedia.org/resource/Baye_Fall_(basketball)', 'http://dbpedia.org/resource/Beau_Beech', 'http://dbpedia.org/resource/Bechir_Hadidane', 'http://dbpedia.org/resource/BeeJay_Anya', 'http://dbpedia.org/resource/Beka_Burjanadze', 'http://dbpedia.org/resource/Bekir_Yarangüme', 'http://dbpedia.org/resource/Ben_Altit', 'http://dbpedia.org/resource/Ben_Carter_(basketball)', 'http://dbpedia.org/resource/Ben_Clyde', 'http://dbpedia.org/resource/Ben_Coleman_(basketball)', 'http://dbpedia.org/resource/Ben_Davis_(basketball)', 'http://dbpedia.org/resource/Ben_Eisenhardt', 'http://dbpedia.org/resource/Ben_Gillery', 'http://dbpedia.org/resource/Ben_Handlogten', 'http://dbpedia.org/resource/Ben_Lammers', 'http://dbpedia.org/resource/Ben_Lawson_(basketball)', 'http://dbpedia.org/resource/Ben_McCauley', 'http://dbpedia.org/resource/Ben_McDonald_(basketball)', 'http://dbpedia.org/resource/Ben_Moore_(basketball)', 'http://dbpedia.org/resource/Ben_Poquette', 'http://dbpedia.org/resource/Ben_Simmons', 'http://dbpedia.org/resource/Ben_Strong_(basketball)', 'http://dbpedia.org/resource/Ben_Sullivan_(basketball)', 'http://dbpedia.org/resource/Ben_Vander_Plas', 'http://dbpedia.org/resource/Ben_Wallace_(basketball)', 'http://dbpedia.org/resource/Ben_Wilson_(basketball)', 'http://dbpedia.org/resource/Benjamin_Eze', 'http://dbpedia.org/resource/Benjamin_Ortner', 'http://dbpedia.org/resource/Bennett_Davison', 'http://dbpedia.org/resource/Bennett_Koch', 'http://dbpedia.org/resource/Bennie_Boatwright', 'http://dbpedia.org/resource/Bennie_Swain', 'http://dbpedia.org/resource/Benny_Williams_(basketball)', 'http://dbpedia.org/resource/Benoit_Benjamin', 'http://dbpedia.org/resource/Berend_Weijs', 'http://dbpedia.org/resource/Berk_Demir', 'http://dbpedia.org/resource/Berkan_Durmaz', 'http://dbpedia.org/resource/Berkay_Candan', 'http://dbpedia.org/resource/Bernadett_Határ', 'http://dbpedia.org/resource/Bernard_James', 'http://dbpedia.org/resource/Bernard_King', 'http://dbpedia.org/resource/Bernard_Toone', 'http://dbpedia.org/resource/Berni_Tamames', 'http://dbpedia.org/resource/Bernie_Harris_(basketball)', 'http://dbpedia.org/resource/Betinho_(basketball)', 'http://dbpedia.org/resource/Bevo_Francis', 'http://dbpedia.org/resource/Bevo_Nordmann', 'http://dbpedia.org/resource/Big_Moose_Meyer', 'http://dbpedia.org/resource/Bill_Allen_(basketball)', 'http://dbpedia.org/resource/Bill_Amis', 'http://dbpedia.org/resource/Bill_Buntin', 'http://dbpedia.org/resource/Bill_Bunting', 'http://dbpedia.org/resource/Bill_Campion', 'http://dbpedia.org/resource/Bill_Cartwright', 'http://dbpedia.org/resource/Bill_Chmielewski', 'http://dbpedia.org/resource/Bill_Coven', 'http://dbpedia.org/resource/Bill_Curley', 'http://dbpedia.org/resource/Bill_Dinwiddie', 'http://dbpedia.org/resource/Bill_Garner_(basketball)', 'http://dbpedia.org/resource/Bill_Garnett', 'http://dbpedia.org/resource/Bill_Gossett', 'http://dbpedia.org/resource/Bill_Hanzlik', 'http://dbpedia.org/resource/Bill_Henry_(basketball)', 'http://dbpedia.org/resource/Bill_Hewitt_(basketball)', 'http://dbpedia.org/resource/Bill_Hosket_Jr.', 'http://dbpedia.org/resource/Bill_Jones_(basketball,_born_1966)', 'http://dbpedia.org/resource/Bill_Laimbeer', 'http://dbpedia.org/resource/Bill_Logan_(basketball)', 'http://dbpedia.org/resource/Bill_Martin_(basketball)', 'http://dbpedia.org/resource/Bill_Mayfield', 'http://dbpedia.org/resource/Bill_McGill', 'http://dbpedia.org/resource/Bill_Melis', 'http://dbpedia.org/resource/Bill_Newton_(basketball)', 'http://dbpedia.org/resource/Bill_Roberts_(basketball)', 'http://dbpedia.org/resource/Bill_Robinzine', 'http://dbpedia.org/resource/Bill_Russell', 'http://dbpedia.org/resource/Bill_Sattler', 'http://dbpedia.org/resource/Bill_Schrader', 'http://dbpedia.org/resource/Bill_Spivey', 'http://dbpedia.org/resource/Bill_Stricker', 'http://dbpedia.org/resource/Bill_Thieben', 'http://dbpedia.org/resource/Bill_Turner_(basketball)', 'http://dbpedia.org/resource/Bill_Uhl', 'http://dbpedia.org/resource/Bill_Varner', 'http://dbpedia.org/resource/Bill_Walton', 'http://dbpedia.org/resource/Bill_Wennington', 'http://dbpedia.org/resource/Bill_Willoughby', 'http://dbpedia.org/resource/Billy_McShepard', 'http://dbpedia.org/resource/Billy_Owens', 'http://dbpedia.org/resource/Billy_Paultz', 'http://dbpedia.org/resource/Billy_Preston_(basketball)', 'http://dbpedia.org/resource/Billy_Singleton', 'http://dbpedia.org/resource/Billy_Thompson_(basketball)', 'http://dbpedia.org/resource/Billy_White_(basketball)', 'http://dbpedia.org/resource/Bismack_Biyombo', 'http://dbpedia.org/resource/Bison_Dele', 'http://dbpedia.org/resource/Blagota_Sekulić', 'http://dbpedia.org/resource/Blair_Rasmussen', 'http://dbpedia.org/resource/Blake_Aoki_Borysewicz', 'http://dbpedia.org/resource/Blake_Griffin', 'http://dbpedia.org/resource/Blerim_Mazreku', 'http://dbpedia.org/resource/Bo_Ellis__Bo_Ellis__1', 'http://dbpedia.org/resource/Bo_Outlaw', 'http://dbpedia.org/resource/Bob_Allen_(basketball)', 'http://dbpedia.org/resource/Bob_Armstrong_(basketball,_born_1933)', 'http://dbpedia.org/resource/Bob_Bedell', 'http://dbpedia.org/resource/Bob_Bigelow', 'http://dbpedia.org/resource/Bob_Boozer', 'http://dbpedia.org/resource/Bob_Brown_(basketball,_born_1921)', 'http://dbpedia.org/resource/Bob_Burrow', 'http://dbpedia.org/resource/Bob_Christian_(basketball)', 'http://dbpedia.org/resource/Bob_Cluggish', 'http://dbpedia.org/resource/Bob_Davis_(basketball_player)__Bob_Davis__1', 'http://dbpedia.org/resource/Bob_Dykstra', 'http://dbpedia.org/resource/Bob_Elliott_(basketball)', 'http://dbpedia.org/resource/Bob_Ferry', 'http://dbpedia.org/resource/Bob_Ford_(basketball)', 'http://dbpedia.org/resource/Bob_Greacen', 'http://dbpedia.org/resource/Bob_Hahn', 'http://dbpedia.org/resource/Bob_Harris_(basketball)', 'http://dbpedia.org/resource/Bob_Hogsett', 'http://dbpedia.org/resource/Bob_Hopkins__Bob_Hopkins__1', 'http://dbpedia.org/resource/Bob_Houbregs', 'http://dbpedia.org/resource/Bob_Kauffman', 'http://dbpedia.org/resource/Bob_Kurland', 'http://dbpedia.org/resource/Bob_Lanier', 'http://dbpedia.org/resource/Bob_Lavoy', 'http://dbpedia.org/resource/Bob_Lienhard', 'http://dbpedia.org/resource/Bob_Love', 'http://dbpedia.org/resource/Bob_Martin_(basketball)', 'http://dbpedia.org/resource/Bob_Mattick', 'http://dbpedia.org/resource/Bob_McAdoo', 'http://dbpedia.org/resource/Bob_McCurdy', 'http://dbpedia.org/resource/Bob_McKeen', 'http://dbpedia.org/resource/Bob_Miller_(basketball)', 'http://dbpedia.org/resource/Bob_Morse', 'http://dbpedia.org/resource/Bob_Myers', 'http://dbpedia.org/resource/Bob_Nash_(basketball)', 'http://dbpedia.org/resource/Bob_Netolicky', 'http://dbpedia.org/resource/Bob_Pelkington', 'http://dbpedia.org/resource/Bob_Pettit', 'http://dbpedia.org/resource/Bob_Riley_(basketball)', 'http://dbpedia.org/resource/Bob_Rule', 'http://dbpedia.org/resource/Bob_Spessard', 'http://dbpedia.org/resource/Bob_Thornton', 'http://dbpedia.org/resource/Bob_Woollard', 'http://dbpedia.org/resource/Boban_Janković', 'http://dbpedia.org/resource/Boban_Marjanović', 'http://dbpedia.org/resource/Bobby_Cattage', 'http://dbpedia.org/resource/Bobby_Croft', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1951)', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1984)', 'http://dbpedia.org/resource/Bobby_Lee_Hurt', 'http://dbpedia.org/resource/Bobby_Portis', 'http://dbpedia.org/resource/Bobby_Simmons', 'http://dbpedia.org/resource/Bobby_Speight', 'http://dbpedia.org/resource/Bobby_Watson_(basketball_coach)', 'http://dbpedia.org/resource/Bobby_Wilson_(basketball,_born_1944)', 'http://dbpedia.org/resource/Bojan_Subotić', 'http://dbpedia.org/resource/Bol_Bol', 'http://dbpedia.org/resource/Bonel_Balingit', "http://dbpedia.org/resource/Boniface_N'Dong", 'http://dbpedia.org/resource/Boo_Jackson__Boo_Jackson__1', 'http://dbpedia.org/resource/Bora_Paçun', 'http://dbpedia.org/resource/Boris_Diaw', 'http://dbpedia.org/resource/Boštjan_Nachbar', 'http://dbpedia.org/resource/Boubacar_Aw', 'http://dbpedia.org/resource/Boubacar_Coly', 'http://dbpedia.org/resource/Boubacar_Toure', 'http://dbpedia.org/resource/Brad_Branson', 'http://dbpedia.org/resource/Brad_Daugherty_(basketball)', 'http://dbpedia.org/resource/Brad_Lohaus', 'http://dbpedia.org/resource/Brad_Miley', 'http://dbpedia.org/resource/Brad_Miller_(basketball)', 'http://dbpedia.org/resource/Brad_Robinson_(basketball)', 'http://dbpedia.org/resource/Brad_Waldow', 'http://dbpedia.org/resource/Brad_Wright_(basketball)', 'http://dbpedia.org/resource/Bradley_Buckman', 'http://dbpedia.org/resource/Brady_Manek', 'http://dbpedia.org/resource/Brandan_Wright', 'http://dbpedia.org/resource/Brandon_Bass', 'http://dbpedia.org/resource/Brandon_Bowman', 'http://dbpedia.org/resource/Brandon_Clarke', 'http://dbpedia.org/resource/Brandon_Cole', 'http://dbpedia.org/resource/Brandon_Costner', 'http://dbpedia.org/resource/Brandon_Davies', 'http://dbpedia.org/resource/Brandon_Gilbeck', 'http://dbpedia.org/resource/Brandon_Hunter', 'http://dbpedia.org/resource/Brandon_Huntley-Hatfield', 'http://dbpedia.org/resource/Brandon_Ingram', 'http://dbpedia.org/resource/Brandon_McCoy', 'http://dbpedia.org/resource/Brandon_Miller_(basketball,_born_2002)', 'http://dbpedia.org/resource/Brandon_Penn', 'http://dbpedia.org/resource/Brandon_Sebirumbi', 'http://dbpedia.org/resource/Brandon_Slater', 'http://dbpedia.org/resource/Brandon_Ubel', 'http://dbpedia.org/resource/Brandon_Wallace', 'http://dbpedia.org/resource/Brant_Weidner', 'http://dbpedia.org/resource/Braxton_Key', 'http://dbpedia.org/resource/Brayon_Blake', 'http://dbpedia.org/resource/Brekkott_Chapman', 'http://dbpedia.org/resource/Brendan_Haywood', 'http://dbpedia.org/resource/Brendan_Lane_(basketball)', 'http://dbpedia.org/resource/Brennan_McElroy', 'http://dbpedia.org/resource/Brent_Barry', 'http://dbpedia.org/resource/Brent_Petway', 'http://dbpedia.org/resource/Brent_Scott_(basketball)', 'http://dbpedia.org/resource/Brent_Wright', 'http://dbpedia.org/resource/Bret_Brielmaier', 'http://dbpedia.org/resource/Brett_Roberts', 'http://dbpedia.org/resource/Brett_Szabo', 'http://dbpedia.org/resource/Brett_Vroman', 'http://dbpedia.org/resource/Brian_Beshara', 'http://dbpedia.org/resource/Brian_Butch', 'http://dbpedia.org/resource/Brian_Cardinal', 'http://dbpedia.org/resource/Brian_Cook_(basketball)', 'http://dbpedia.org/resource/Brian_Cusworth', 'http://dbpedia.org/resource/Brian_Davis_(basketball)', 'http://dbpedia.org/resource/Brian_Evans_(basketball)', 'http://dbpedia.org/resource/Brian_Fitzpatrick_(basketball)', 'http://dbpedia.org/resource/Brian_Grant', 'http://dbpedia.org/resource/Brian_Jackson_(basketball)', 'http://dbpedia.org/resource/Brian_Kerle', 'http://dbpedia.org/resource/Brian_Martin_(basketball)', 'http://dbpedia.org/resource/Brian_Oliver_(basketball,_born_1990)', 'http://dbpedia.org/resource/Brian_Quinnett', 'http://dbpedia.org/resource/Brian_Qvale', 'http://dbpedia.org/resource/Brian_Randle__Brian_Randle__1', 'http://dbpedia.org/resource/Brian_Rowsom', 'http://dbpedia.org/resource/Brian_Scalabrine', 'http://dbpedia.org/resource/Brian_Skinner', 'http://dbpedia.org/resource/Brian_Zoubek', 'http://dbpedia.org/resource/Brice_Assie__Brice_Assie__1', 'http://dbpedia.org/resource/Brice_Johnson', 'http://dbpedia.org/resource/Brice_Vounang', 'http://dbpedia.org/resource/Bright_Akhuetie', 'http://dbpedia.org/resource/Britton_Johnsen', 'http://dbpedia.org/resource/Brock_Motum', 'http://dbpedia.org/resource/Brook_Lopez', 'http://dbpedia.org/resource/Bruce_Bolden', 'http://dbpedia.org/resource/Bruce_Bowen', 'http://dbpedia.org/resource/Bruce_Flowers', 'http://dbpedia.org/resource/Bruce_Kuczenski', 'http://dbpedia.org/resource/Bruce_Seals', 'http://dbpedia.org/resource/Bruno_Boin', 'http://dbpedia.org/resource/Bruno_Caboclo', 'http://dbpedia.org/resource/Bruno_Coqueran', 'http://dbpedia.org/resource/Bruno_Fernando', 'http://dbpedia.org/resource/Bruno_Šundov', 'http://dbpedia.org/resource/Bruno-Nazaire_Kongaouin', 'http://dbpedia.org/resource/Bryan_Bracey', 'http://dbpedia.org/resource/Bryan_Davis_(basketball)', 'http://dbpedia.org/resource/Bryant_Dunston', 'http://dbpedia.org/resource/Bryant_Reeves', 'http://dbpedia.org/resource/Bryant_Smith', 'http://dbpedia.org/resource/Bryce_Douvier', 'http://dbpedia.org/resource/Bryce_Washington_(basketball)', 'http://dbpedia.org/resource/Bryon_Russell', 'http://dbpedia.org/resource/Bryson_Williams', '</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Volkov', 'http://dbpedia.org/resource/Aleksandr_Ivanchenkov', 'http://dbpedia.org/resource/Aleksandr_Laveykin', 'http://dbpedia.org/resource/Aleksandr_Nikolayevich_Balandin', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov__Aleksandr_Pavlovich_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Serebrov', 'http://dbpedia.org/resource/Aleksandr_Viktorenko', 'http://dbpedia.org/resource/Aleksei_Gubarev', 'http://dbpedia.org/resource/Aleksei_Yeliseyev', 'http://dbpedia.org/resource/Anatoly_Berezovoy', 'http://dbpedia.org/resource/Anatoly_Filipchenko', 'http://dbpedia.org/resource/Anatoly_Levchenko__Anatoly_Semyonovich_Levchenko__1', 'http://dbpedia.org/resource/Andriyan_Nikolayev', 'http://dbpedia.org/resource/Boris_Andreyev_(cosmonaut)', 'http://dbpedia.org/resource/Boris_Volynov', 'http://dbpedia.org/resource/Boris_Yegorov', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Sarafanov', 'http://dbpedia.org/resource/Gennady_Strekalov', 'http://dbpedia.org/resource/Georgy_Dobrovolsky', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Ivan_Anikeyev', 'http://dbpedia.org/resource/Konstantin_Feoktistov', 'http://dbpedia.org/resource/Leonid_Ivanov_(test_pilot)', 'http://dbpedia.org/resource/Leonid_Kizim', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Lev_Dyomin', 'http://dbpedia.org/resource/Mars_Rafikov', 'http://dbpedia.org/resource/Nikolai_Rukavishnikov', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Grigoriyevich_Kononenko', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Pavel_Belyayev', 'http://dbpedia.org/resource/Sergey_Volkov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Vozovikov', 'http://dbpedia.org/resource/Valentin_Bondarenko', 'http://dbpedia.org/resource/Valentin_Lebedev', 'http://dbpedia.org/resource/Valery_Bykovsky', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Rozhdestvensky', 'http://dbpedia.org/resource/Valery_Ryumin', 'http://dbpedia.org/resource/Vasily_Lazarev', 'http://dbpedia.org/resource/Viktor_Gorbatko', 'http://dbpedia.org/resource/Viktor_Patsayev', 'http://dbpedia.org/resource/Viktor_Savinykh', 'http://dbpedia.org/resource/Vitaly_Sevastyanov', 'http://dbpedia.org/resource/Vladimir_Aksyonov', 'http://dbpedia.org/resource/Vladimir_Dzhanibekov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Solovyov_(cosmonaut)', 'http://dbpedia.org/resource/Vladimir_Vasyutin', 'http://dbpedia.org/resource/Vladislav_Volkov', 'http://dbpedia.org/resource/Vyacheslav_Zudov', 'http://dbpedia.org/resource/Yevgeny_Khrunov', 'http://dbpedia.org/resource/Yuri_Artyukhin', 'http://dbpedia.org/resource/Yuri_Glazkov', 'http://dbpedia.org/resource/Yuri_Malyshev_(cosmonaut)', 'http://dbpedia.org/resource/Yuri_Romanenko']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Free_Samples', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
@@ -1281,51 +1945,33 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 128,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?musical WHERE { ?musical rdf:type dbo:Musical . ?musical dbo:musicBy dbr:Elton_John . }",\n        "startIndex": 128,\n        "stopIndex": 135\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?musical WHERE { ?musical rdf:type dbo:Musical . ?musical dbo:musicBy dbr:Elton_John . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 134,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }",\n        "startIndex": 425,\n        "stopIndex": 425\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring dbr:Julia_Roberts . ?uri dbo:director dbr:Garry_Marshall . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring dbr:Julia_Roberts . ?uri dbo:director dbr:Garry_Marshall . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 120,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow ; dbo:creator dbr:Walt_Disney . }",\n        "startIndex": 120,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow ; dbo:creator dbr:Walt_Disney . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 134,\n        "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }",\n        "startIndex": 134,\n        "stopIndex": 134\n    },\n    "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 65,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace dbr:Germany . } UNION { ?uri dbo:birthPlace ?place . ?place dbo:country dbr:Germany . }",\n        "startIndex": 65,\n        "stopIndex": 69\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace dbr:Germany . } UNION { ?uri dbo:birthPlace ?place . ?place dbo:country dbr:Germany . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Album&gt; . ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . } ORDER BY ?date LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Album&gt; . ?uri &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?uri &lt;http://dbpedia.org/ontology/releaseDate&gt; ?date . } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . ?uri &lt;http://dbpedia.org/ontology/creator&gt; &lt;http://dbpedia.org/resource/John_Cleese&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Astronaut&gt; . { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Soviet_Union&gt; } UNION { ?uri &lt;http://dbpedia.org/ontology/nationality&gt; &lt;http://dbpedia.org/resource/Russia&gt; } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 65,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace dbr:Germany . } UNION { ?uri dbo:birthPlace ?place . ?place dbo:country dbr:Germany . }",\n        "startIndex": 442,\n        "stopIndex": 446\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri dbo:birthPlace dbr:Germany . } UNION { ?uri dbo:birthPlace ?place . ?place dbo:country dbr:Germany . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>Missing rdf:type</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
   </si>
   <si>
     <t>Query Bad Formed</t>
   </si>
   <si>
-    <t>Missing rdf:type</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Wrong Ontology</t>
   </si>
 </sst>
 </file>
@@ -1693,15 +2339,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,8 +2370,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1753,7 +2406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1779,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1793,19 +2446,19 @@
         <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1831,7 +2484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1857,7 +2510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1883,7 +2536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1909,7 +2562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1935,7 +2588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1961,7 +2614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1987,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2013,7 +2666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2039,7 +2692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2053,7 +2706,7 @@
         <v>320</v>
       </c>
       <c r="E14" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F14" t="s">
         <v>417</v>
@@ -2062,10 +2715,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="I14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2091,7 +2747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2117,7 +2773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2128,22 +2784,22 @@
         <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="E17" t="s">
-        <v>399</v>
+        <v>323</v>
       </c>
       <c r="F17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2154,10 +2810,10 @@
         <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F18" t="s">
         <v>417</v>
@@ -2169,7 +2825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2180,10 +2836,10 @@
         <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E19" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F19" t="s">
         <v>417</v>
@@ -2192,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2206,10 +2862,10 @@
         <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F20" t="s">
         <v>417</v>
@@ -2221,7 +2877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2232,10 +2888,10 @@
         <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F21" t="s">
         <v>417</v>
@@ -2247,7 +2903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2258,10 +2914,10 @@
         <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F22" t="s">
         <v>417</v>
@@ -2273,7 +2929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2284,10 +2940,10 @@
         <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F23" t="s">
         <v>417</v>
@@ -2296,10 +2952,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="I23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2313,7 +2972,7 @@
         <v>320</v>
       </c>
       <c r="E24" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F24" t="s">
         <v>417</v>
@@ -2322,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2336,10 +2995,10 @@
         <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F25" t="s">
         <v>417</v>
@@ -2351,7 +3010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2362,10 +3021,10 @@
         <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F26" t="s">
         <v>417</v>
@@ -2377,7 +3036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2388,10 +3047,10 @@
         <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F27" t="s">
         <v>417</v>
@@ -2403,7 +3062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2414,10 +3073,10 @@
         <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F28" t="s">
         <v>417</v>
@@ -2429,7 +3088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2440,10 +3099,10 @@
         <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F29" t="s">
         <v>417</v>
@@ -2455,7 +3114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2466,10 +3125,10 @@
         <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F30" t="s">
         <v>417</v>
@@ -2481,7 +3140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2492,10 +3151,10 @@
         <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F31" t="s">
         <v>417</v>
@@ -2507,7 +3166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2518,10 +3177,10 @@
         <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F32" t="s">
         <v>417</v>
@@ -2533,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2544,10 +3203,10 @@
         <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F33" t="s">
         <v>417</v>
@@ -2559,7 +3218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2570,10 +3229,10 @@
         <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E34" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F34" t="s">
         <v>417</v>
@@ -2582,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2596,10 +3255,10 @@
         <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F35" t="s">
         <v>417</v>
@@ -2611,7 +3270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2622,10 +3281,10 @@
         <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F36" t="s">
         <v>417</v>
@@ -2637,7 +3296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2648,10 +3307,10 @@
         <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F37" t="s">
         <v>417</v>
@@ -2663,7 +3322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2674,10 +3333,10 @@
         <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E38" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F38" t="s">
         <v>417</v>
@@ -2686,10 +3345,16 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="I38" t="s">
+        <v>426</v>
+      </c>
+      <c r="J38" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2700,10 +3365,10 @@
         <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F39" t="s">
         <v>417</v>
@@ -2715,7 +3380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2726,10 +3391,10 @@
         <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F40" t="s">
         <v>417</v>
@@ -2741,7 +3406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2752,10 +3417,10 @@
         <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F41" t="s">
         <v>417</v>
@@ -2767,7 +3432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2778,10 +3443,10 @@
         <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F42" t="s">
         <v>417</v>
@@ -2793,7 +3458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2804,10 +3469,10 @@
         <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E43" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F43" t="s">
         <v>417</v>
@@ -2816,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2830,10 +3495,10 @@
         <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E44" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F44" t="s">
         <v>417</v>
@@ -2845,7 +3510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2856,10 +3521,10 @@
         <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E45" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F45" t="s">
         <v>417</v>
@@ -2871,7 +3536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2882,10 +3547,10 @@
         <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F46" t="s">
         <v>417</v>
@@ -2894,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2908,10 +3573,10 @@
         <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E47" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F47" t="s">
         <v>417</v>
@@ -2920,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2934,10 +3599,10 @@
         <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F48" t="s">
         <v>417</v>
@@ -2949,7 +3614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2960,10 +3625,10 @@
         <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E49" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F49" t="s">
         <v>417</v>
@@ -2975,7 +3640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2986,10 +3651,10 @@
         <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E50" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F50" t="s">
         <v>417</v>
@@ -3001,7 +3666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3012,10 +3677,10 @@
         <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F51" t="s">
         <v>417</v>
@@ -3027,7 +3692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3038,10 +3703,10 @@
         <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F52" t="s">
         <v>417</v>
@@ -3053,7 +3718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3064,10 +3729,10 @@
         <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F53" t="s">
         <v>417</v>
@@ -3079,7 +3744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3090,22 +3755,22 @@
         <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="E54" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="F54" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3116,10 +3781,10 @@
         <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E55" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F55" t="s">
         <v>417</v>
@@ -3131,7 +3796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3142,22 +3807,25 @@
         <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="E56" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F56" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="I56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3168,10 +3836,10 @@
         <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E57" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F57" t="s">
         <v>417</v>
@@ -3183,7 +3851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3194,10 +3862,10 @@
         <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E58" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F58" t="s">
         <v>417</v>
@@ -3209,7 +3877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3220,10 +3888,10 @@
         <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E59" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F59" t="s">
         <v>417</v>
@@ -3235,7 +3903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3246,10 +3914,10 @@
         <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E60" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F60" t="s">
         <v>417</v>
@@ -3261,7 +3929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3272,10 +3940,10 @@
         <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E61" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F61" t="s">
         <v>417</v>
@@ -3287,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3298,10 +3966,10 @@
         <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E62" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F62" t="s">
         <v>417</v>
@@ -3313,7 +3981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3324,10 +3992,10 @@
         <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E63" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F63" t="s">
         <v>417</v>
@@ -3339,7 +4007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3350,10 +4018,10 @@
         <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E64" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F64" t="s">
         <v>417</v>
@@ -3365,7 +4033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3376,10 +4044,10 @@
         <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F65" t="s">
         <v>417</v>
@@ -3391,7 +4059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3402,10 +4070,10 @@
         <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E66" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F66" t="s">
         <v>417</v>
@@ -3417,7 +4085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3428,10 +4096,10 @@
         <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E67" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F67" t="s">
         <v>417</v>
@@ -3443,7 +4111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3454,22 +4122,25 @@
         <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="E68" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="I68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3480,10 +4151,10 @@
         <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E69" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F69" t="s">
         <v>417</v>
@@ -3495,7 +4166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3506,10 +4177,10 @@
         <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E70" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F70" t="s">
         <v>417</v>
@@ -3521,7 +4192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3532,10 +4203,10 @@
         <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F71" t="s">
         <v>417</v>
@@ -3547,7 +4218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3558,10 +4229,10 @@
         <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E72" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F72" t="s">
         <v>417</v>
@@ -3573,7 +4244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3584,22 +4255,22 @@
         <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="E73" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="F73" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3610,10 +4281,10 @@
         <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E74" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F74" t="s">
         <v>417</v>
@@ -3625,7 +4296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3636,10 +4307,10 @@
         <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E75" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F75" t="s">
         <v>417</v>
@@ -3651,7 +4322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3662,10 +4333,10 @@
         <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E76" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F76" t="s">
         <v>417</v>
@@ -3677,7 +4348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3688,10 +4359,10 @@
         <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F77" t="s">
         <v>417</v>
@@ -3700,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3714,22 +4385,22 @@
         <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="E78" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="F78" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3740,10 +4411,10 @@
         <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E79" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F79" t="s">
         <v>417</v>
@@ -3755,7 +4426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3766,10 +4437,10 @@
         <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E80" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F80" t="s">
         <v>417</v>
@@ -3781,7 +4452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3807,7 +4478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3821,7 +4492,7 @@
         <v>320</v>
       </c>
       <c r="E82" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F82" t="s">
         <v>417</v>
@@ -3830,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3844,10 +4515,10 @@
         <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E83" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F83" t="s">
         <v>417</v>
@@ -3859,7 +4530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3870,10 +4541,10 @@
         <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E84" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F84" t="s">
         <v>417</v>
@@ -3885,7 +4556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3896,10 +4567,10 @@
         <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E85" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F85" t="s">
         <v>417</v>
@@ -3911,7 +4582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3922,10 +4593,10 @@
         <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E86" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F86" t="s">
         <v>417</v>
@@ -3937,7 +4608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3948,10 +4619,10 @@
         <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E87" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F87" t="s">
         <v>417</v>
@@ -3963,7 +4634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3974,22 +4645,22 @@
         <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="E88" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="F88" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4000,10 +4671,10 @@
         <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E89" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F89" t="s">
         <v>417</v>
@@ -4015,7 +4686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4026,10 +4697,10 @@
         <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E90" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F90" t="s">
         <v>417</v>
@@ -4041,7 +4712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4052,10 +4723,10 @@
         <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E91" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F91" t="s">
         <v>417</v>
@@ -4067,7 +4738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4078,10 +4749,10 @@
         <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E92" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F92" t="s">
         <v>417</v>
@@ -4093,7 +4764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4104,10 +4775,10 @@
         <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="E93" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F93" t="s">
         <v>417</v>
@@ -4119,7 +4790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4130,10 +4801,10 @@
         <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E94" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F94" t="s">
         <v>417</v>
@@ -4145,7 +4816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4156,10 +4827,10 @@
         <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E95" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F95" t="s">
         <v>417</v>
@@ -4171,7 +4842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4182,7 +4853,7 @@
         <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E96" t="s">
         <v>416</v>
@@ -4194,7 +4865,10 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>428</v>
+        <v>426</v>
+      </c>
+      <c r="I96" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -4208,10 +4882,10 @@
         <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E97" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F97" t="s">
         <v>417</v>
@@ -4234,10 +4908,10 @@
         <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E98" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F98" t="s">
         <v>417</v>
@@ -4260,10 +4934,10 @@
         <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E99" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F99" t="s">
         <v>417</v>
@@ -4286,10 +4960,10 @@
         <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E100" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F100" t="s">
         <v>417</v>
@@ -4312,10 +4986,10 @@
         <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E101" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F101" t="s">
         <v>417</v>
@@ -4328,7 +5002,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>